--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part2.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963D4353-3DA0-4AEA-A916-98678061FD23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{963D4353-3DA0-4AEA-A916-98678061FD23}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15990" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="crypto" sheetId="11" r:id="rId2"/>
-    <sheet name="macro-test" sheetId="13" r:id="rId3"/>
-    <sheet name="repeat-test" sheetId="14" r:id="rId4"/>
-    <sheet name="expression-test" sheetId="15" r:id="rId5"/>
-    <sheet name="multi-scenario2" sheetId="17" r:id="rId6"/>
-    <sheet name="flow_controls" sheetId="12" r:id="rId7"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="crypto" r:id="rId2" sheetId="11"/>
+    <sheet name="macro-test" r:id="rId3" sheetId="13"/>
+    <sheet name="repeat-test" r:id="rId4" sheetId="14"/>
+    <sheet name="expression-test" r:id="rId5" sheetId="15"/>
+    <sheet name="multi-scenario2" r:id="rId6" sheetId="17"/>
+    <sheet name="flow_controls" r:id="rId7" sheetId="12"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -34,7 +34,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -44,7 +44,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -52,15 +52,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="803">
   <si>
     <t>description</t>
   </si>
@@ -2371,12 +2371,172 @@
   <si>
     <t>uncheckAll(locator,waitMs)</t>
   </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2492,8 +2652,222 @@
       <color theme="1"/>
       <name val="Tahoma"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="55">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2528,6 +2902,278 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2689,339 +3335,441 @@
     </border>
   </borders>
   <cellStyleXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="110">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="9" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="9" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="15" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="11" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="11" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="5" fontId="6" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="6" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="6" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="7" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="10" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="19" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="20" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="23" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="30" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="32" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="33" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="32">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="4"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="5"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="6"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="7"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="8"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="9"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="10"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="11"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="13"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="14"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="15"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="16"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="17"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="18"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="19"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="20"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="21"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="22"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="23"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="24"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="25"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="26"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="27"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="28"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="29"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="30"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="31"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -3205,7 +3953,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -3230,10 +3978,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3268,7 +4016,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -3303,7 +4051,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -3397,21 +4145,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3428,7 +4176,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3480,30 +4228,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH151"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1" collapsed="1"/>
-    <col min="4" max="13" width="8.5" customWidth="1" collapsed="1"/>
-    <col min="14" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="8.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.375" collapsed="true"/>
+    <col min="4" max="13" customWidth="true" width="8.5" collapsed="true"/>
+    <col min="14" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3583,25 +4331,28 @@
         <v>740</v>
       </c>
       <c r="AA1" t="s">
+        <v>750</v>
+      </c>
+      <c r="AB1" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>131</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>559</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>488</v>
       </c>
@@ -3681,25 +4432,28 @@
         <v>744</v>
       </c>
       <c r="AA2" t="s">
+        <v>758</v>
+      </c>
+      <c r="AB2" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>119</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>124</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>133</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>576</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>628</v>
       </c>
@@ -3770,25 +4524,28 @@
         <v>745</v>
       </c>
       <c r="AA3" t="s">
+        <v>759</v>
+      </c>
+      <c r="AB3" t="s">
         <v>46</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>120</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>125</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>481</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>132</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>653</v>
       </c>
@@ -3856,25 +4613,28 @@
         <v>746</v>
       </c>
       <c r="AA4" t="s">
+        <v>760</v>
+      </c>
+      <c r="AB4" t="s">
         <v>724</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>121</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>126</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>132</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>577</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>715</v>
       </c>
@@ -3930,25 +4690,28 @@
         <v>476</v>
       </c>
       <c r="AA5" t="s">
+        <v>761</v>
+      </c>
+      <c r="AB5" t="s">
         <v>718</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>122</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>735</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>134</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>578</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4001,25 +4764,28 @@
         <v>478</v>
       </c>
       <c r="AA6" t="s">
+        <v>762</v>
+      </c>
+      <c r="AB6" t="s">
         <v>47</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>588</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>127</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>135</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>579</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -4063,25 +4829,28 @@
         <v>477</v>
       </c>
       <c r="AA7" t="s">
+        <v>763</v>
+      </c>
+      <c r="AB7" t="s">
         <v>48</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>589</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>128</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>136</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>580</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -4125,25 +4894,28 @@
         <v>479</v>
       </c>
       <c r="AA8" t="s">
+        <v>764</v>
+      </c>
+      <c r="AB8" t="s">
         <v>49</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>123</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>129</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>137</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>581</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>173</v>
       </c>
@@ -4184,19 +4956,22 @@
         <v>480</v>
       </c>
       <c r="AA9" t="s">
+        <v>765</v>
+      </c>
+      <c r="AB9" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>130</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>180</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -4228,19 +5003,22 @@
         <v>549</v>
       </c>
       <c r="AA10" t="s">
+        <v>766</v>
+      </c>
+      <c r="AB10" t="s">
         <v>284</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>736</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>181</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>215</v>
       </c>
@@ -4266,19 +5044,22 @@
         <v>164</v>
       </c>
       <c r="S11" t="s">
-        <v>254</v>
+        <v>757</v>
       </c>
       <c r="AA11" t="s">
+        <v>767</v>
+      </c>
+      <c r="AB11" t="s">
         <v>285</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>286</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>144</v>
       </c>
@@ -4304,19 +5085,22 @@
         <v>26</v>
       </c>
       <c r="S12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AA12" t="s">
+        <v>768</v>
+      </c>
+      <c r="AB12" t="s">
         <v>50</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>138</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>381</v>
       </c>
@@ -4342,19 +5126,22 @@
         <v>165</v>
       </c>
       <c r="S13" t="s">
-        <v>728</v>
+        <v>255</v>
       </c>
       <c r="AA13" t="s">
+        <v>769</v>
+      </c>
+      <c r="AB13" t="s">
         <v>372</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>139</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>183</v>
       </c>
@@ -4377,19 +5164,22 @@
         <v>166</v>
       </c>
       <c r="S14" t="s">
-        <v>260</v>
+        <v>728</v>
       </c>
       <c r="AA14" t="s">
+        <v>770</v>
+      </c>
+      <c r="AB14" t="s">
         <v>51</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>140</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>679</v>
       </c>
@@ -4412,19 +5202,22 @@
         <v>667</v>
       </c>
       <c r="S15" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AA15" t="s">
+        <v>771</v>
+      </c>
+      <c r="AB15" t="s">
         <v>747</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>141</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>644</v>
       </c>
@@ -4447,19 +5240,22 @@
         <v>668</v>
       </c>
       <c r="S16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AA16" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB16" t="s">
         <v>729</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>142</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -4476,19 +5272,22 @@
         <v>192</v>
       </c>
       <c r="S17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA17" t="s">
+        <v>773</v>
+      </c>
+      <c r="AB17" t="s">
         <v>52</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>631</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -4504,19 +5303,25 @@
       <c r="N18" t="s">
         <v>193</v>
       </c>
+      <c r="S18" t="s">
+        <v>258</v>
+      </c>
       <c r="AA18" t="s">
+        <v>774</v>
+      </c>
+      <c r="AB18" t="s">
         <v>44</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>245</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>751</v>
       </c>
       <c r="H19" t="s">
         <v>179</v>
@@ -4525,18 +5330,21 @@
         <v>599</v>
       </c>
       <c r="AA19" t="s">
+        <v>775</v>
+      </c>
+      <c r="AB19" t="s">
         <v>669</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>182</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>752</v>
       </c>
       <c r="H20" t="s">
         <v>323</v>
@@ -4545,18 +5353,21 @@
         <v>170</v>
       </c>
       <c r="AA20" t="s">
+        <v>776</v>
+      </c>
+      <c r="AB20" t="s">
         <v>53</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>540</v>
       </c>
       <c r="F21" t="s">
-        <v>276</v>
+        <v>753</v>
       </c>
       <c r="H21" t="s">
         <v>324</v>
@@ -4565,18 +5376,21 @@
         <v>171</v>
       </c>
       <c r="AA21" t="s">
+        <v>777</v>
+      </c>
+      <c r="AB21" t="s">
         <v>54</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>557</v>
       </c>
       <c r="F22" t="s">
-        <v>705</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
         <v>325</v>
@@ -4585,18 +5399,21 @@
         <v>721</v>
       </c>
       <c r="AA22" t="s">
+        <v>778</v>
+      </c>
+      <c r="AB22" t="s">
         <v>55</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>558</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" t="s">
         <v>326</v>
@@ -4605,18 +5422,21 @@
         <v>638</v>
       </c>
       <c r="AA23" t="s">
+        <v>779</v>
+      </c>
+      <c r="AB23" t="s">
         <v>56</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>474</v>
       </c>
       <c r="F24" t="s">
-        <v>357</v>
+        <v>276</v>
       </c>
       <c r="H24" t="s">
         <v>317</v>
@@ -4625,18 +5445,21 @@
         <v>150</v>
       </c>
       <c r="AA24" t="s">
+        <v>780</v>
+      </c>
+      <c r="AB24" t="s">
         <v>650</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>536</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>754</v>
       </c>
       <c r="H25" t="s">
         <v>306</v>
@@ -4645,948 +5468,1041 @@
         <v>511</v>
       </c>
       <c r="AA25" t="s">
+        <v>781</v>
+      </c>
+      <c r="AB25" t="s">
         <v>57</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>740</v>
       </c>
       <c r="F26" t="s">
-        <v>592</v>
+        <v>705</v>
       </c>
       <c r="H26" t="s">
         <v>156</v>
       </c>
       <c r="L26" t="s">
-        <v>690</v>
+        <v>756</v>
       </c>
       <c r="AA26" t="s">
+        <v>782</v>
+      </c>
+      <c r="AB26" t="s">
         <v>709</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>750</v>
       </c>
       <c r="F27" t="s">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s">
         <v>309</v>
       </c>
       <c r="L27" t="s">
-        <v>151</v>
+        <v>690</v>
       </c>
       <c r="AA27" t="s">
+        <v>783</v>
+      </c>
+      <c r="AB27" t="s">
         <v>58</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>357</v>
       </c>
       <c r="H28" t="s">
         <v>293</v>
       </c>
       <c r="L28" t="s">
-        <v>585</v>
+        <v>151</v>
       </c>
       <c r="AA28" t="s">
+        <v>784</v>
+      </c>
+      <c r="AB28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>636</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s">
         <v>310</v>
       </c>
       <c r="L29" t="s">
-        <v>152</v>
+        <v>585</v>
       </c>
       <c r="AA29" t="s">
+        <v>785</v>
+      </c>
+      <c r="AB29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>637</v>
+        <v>592</v>
       </c>
       <c r="H30" t="s">
         <v>311</v>
       </c>
       <c r="L30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA30" t="s">
+        <v>786</v>
+      </c>
+      <c r="AB30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
-        <v>559</v>
+        <v>131</v>
       </c>
       <c r="F31" t="s">
-        <v>561</v>
+        <v>230</v>
       </c>
       <c r="H31" t="s">
         <v>217</v>
       </c>
+      <c r="L31" t="s">
+        <v>153</v>
+      </c>
       <c r="AA31" t="s">
+        <v>787</v>
+      </c>
+      <c r="AB31" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
-        <v>233</v>
+        <v>559</v>
       </c>
       <c r="F32" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="H32" t="s">
         <v>302</v>
       </c>
       <c r="AA32" t="s">
+        <v>788</v>
+      </c>
+      <c r="AB32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="33">
+      <c r="A33" t="s">
+        <v>233</v>
+      </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>636</v>
       </c>
       <c r="H33" t="s">
         <v>312</v>
       </c>
       <c r="AA33" t="s">
+        <v>789</v>
+      </c>
+      <c r="AB33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="F34" t="s">
-        <v>42</v>
+        <v>637</v>
       </c>
       <c r="H34" t="s">
         <v>675</v>
       </c>
       <c r="AA34" t="s">
+        <v>790</v>
+      </c>
+      <c r="AB34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="F35" t="s">
-        <v>159</v>
+        <v>561</v>
       </c>
       <c r="H35" t="s">
         <v>287</v>
       </c>
       <c r="AA35" t="s">
+        <v>791</v>
+      </c>
+      <c r="AB35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="F36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H36" t="s">
         <v>376</v>
       </c>
       <c r="AA36" t="s">
+        <v>792</v>
+      </c>
+      <c r="AB36" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="F37" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="H37" t="s">
         <v>335</v>
       </c>
       <c r="AA37" t="s">
+        <v>793</v>
+      </c>
+      <c r="AB37" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="F38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H38" t="s">
         <v>288</v>
       </c>
       <c r="AA38" t="s">
+        <v>794</v>
+      </c>
+      <c r="AB38" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="F39" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H39" t="s">
         <v>336</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="40">
+      <c r="F40" t="s">
+        <v>160</v>
+      </c>
       <c r="H40" t="s">
         <v>294</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="41">
+      <c r="F41" t="s">
+        <v>161</v>
+      </c>
       <c r="H41" t="s">
         <v>157</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="42">
+      <c r="F42" t="s">
+        <v>43</v>
+      </c>
       <c r="H42" t="s">
         <v>216</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="43">
+      <c r="F43" t="s">
+        <v>154</v>
+      </c>
       <c r="H43" t="s">
         <v>706</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="44">
+      <c r="F44" t="s">
+        <v>755</v>
+      </c>
       <c r="H44" t="s">
         <v>316</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="45" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="H45" t="s">
         <v>327</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="H46" t="s">
         <v>328</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="H47" t="s">
         <v>394</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="H48" t="s">
         <v>393</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="H50" t="s">
         <v>329</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="H51" t="s">
         <v>390</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="52" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="H52" t="s">
         <v>485</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="53" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="H53" t="s">
         <v>330</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="H54" t="s">
         <v>473</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="55" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="H55" t="s">
         <v>377</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="H56" t="s">
         <v>295</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="H57" t="s">
         <v>319</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="H58" t="s">
         <v>320</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="59" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="H59" t="s">
         <v>707</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="60" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="H60" t="s">
         <v>321</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="H61" t="s">
         <v>331</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="62" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="H62" t="s">
         <v>340</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="63" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="H63" t="s">
         <v>388</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="H64" t="s">
         <v>337</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="H65" t="s">
         <v>338</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="H66" t="s">
         <v>486</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="H67" t="s">
         <v>487</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="H68" t="s">
         <v>396</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="H69" t="s">
         <v>341</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="H70" t="s">
         <v>296</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="71" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="H71" t="s">
         <v>694</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="72" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="H72" t="s">
         <v>342</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="H73" t="s">
         <v>555</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="74" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="H74" t="s">
         <v>332</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="75" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="H75" t="s">
         <v>556</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="H76" t="s">
         <v>289</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="H77" t="s">
         <v>676</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="H78" t="s">
         <v>395</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="H79" t="s">
         <v>307</v>
       </c>
-      <c r="AA79" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="80" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB79" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="H80" t="s">
         <v>313</v>
       </c>
-      <c r="AA80" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="81" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB80" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="H81" t="s">
         <v>318</v>
       </c>
-      <c r="AA81" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="82" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB81" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="H82" t="s">
         <v>562</v>
       </c>
-      <c r="AA82" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="83" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB82" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="H83" t="s">
         <v>378</v>
       </c>
-      <c r="AA83" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB83" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="H84" t="s">
         <v>297</v>
       </c>
-      <c r="AA84" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="85" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB84" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="H85" t="s">
         <v>308</v>
       </c>
-      <c r="AA85" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB85" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="H86" t="s">
         <v>314</v>
       </c>
-      <c r="AA86" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="87" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB86" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="H87" t="s">
         <v>303</v>
       </c>
-      <c r="AA87" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="88" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB87" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="H88" t="s">
         <v>695</v>
       </c>
-      <c r="AA88" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="89" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="H89" t="s">
         <v>298</v>
       </c>
-      <c r="AA89" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="90" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB89" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="H90" t="s">
         <v>315</v>
       </c>
-      <c r="AA90" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="91" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB90" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="H91" t="s">
         <v>299</v>
       </c>
-      <c r="AA91" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="92" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB91" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="H92" t="s">
         <v>300</v>
       </c>
-      <c r="AA92" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="93" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB92" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="H93" t="s">
         <v>333</v>
       </c>
-      <c r="AA93" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="94" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB93" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="H94" t="s">
         <v>339</v>
       </c>
-      <c r="AA94" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="95" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB94" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="H95" t="s">
         <v>322</v>
       </c>
-      <c r="AA95" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="96" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB95" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="H96" t="s">
         <v>391</v>
       </c>
-      <c r="AA96" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="97" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB96" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="H97" t="s">
         <v>304</v>
       </c>
-      <c r="AA97" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="98" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB97" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="H98" t="s">
         <v>305</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="99" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="102" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="103" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="104" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="105" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="107" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="110" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="111" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="112" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="113" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA113" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="114" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA114" t="s">
+    <row r="114">
+      <c r="AB114" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="115" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="116" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="117" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="118" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="119" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="120" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="121" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="123" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="124" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="125" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="126" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="127" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="128" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="129" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="130" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="131" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="132" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="133" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="134" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="135" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="136" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="137" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="138" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="139" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="140" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA141" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="142" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AB144" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="143" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="144" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>118</v>
       </c>
     </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>802</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.375" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="20.5" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.625" style="25" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="8" width="12.625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="11.375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="29.375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="28.375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="9" width="14.125" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="9" width="20.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="25" width="20.625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
@@ -5617,7 +6533,7 @@
       <c r="N1" s="64"/>
       <c r="O1" s="65"/>
     </row>
-    <row r="2" spans="1:15" ht="107.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="107.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="66" t="s">
         <v>28</v>
       </c>
@@ -5638,7 +6554,7 @@
       <c r="N2" s="70"/>
       <c r="O2" s="71"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -5655,7 +6571,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>226</v>
       </c>
@@ -5700,7 +6616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>261</v>
       </c>
@@ -5725,7 +6641,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
@@ -5748,7 +6664,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12" t="s">
@@ -5773,7 +6689,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>441</v>
       </c>
@@ -5798,7 +6714,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="12" t="s">
@@ -5823,7 +6739,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12"/>
@@ -5840,7 +6756,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12"/>
@@ -5857,7 +6773,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
@@ -5874,7 +6790,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12"/>
@@ -5891,7 +6807,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12"/>
@@ -5908,7 +6824,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12"/>
@@ -5925,7 +6841,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12"/>
@@ -5942,7 +6858,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12"/>
@@ -5959,7 +6875,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12"/>
@@ -5976,7 +6892,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12"/>
@@ -5993,7 +6909,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12"/>
@@ -6010,7 +6926,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12"/>
@@ -6027,7 +6943,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12"/>
@@ -6044,7 +6960,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12"/>
@@ -6061,7 +6977,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12"/>
@@ -6078,7 +6994,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
@@ -6095,7 +7011,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12"/>
@@ -6112,7 +7028,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
@@ -6129,7 +7045,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
@@ -6146,7 +7062,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="12"/>
@@ -6163,7 +7079,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="7"/>
       <c r="C30" s="12"/>
@@ -6180,7 +7096,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="12"/>
@@ -6197,7 +7113,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
@@ -6214,7 +7130,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
@@ -6231,7 +7147,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
@@ -6248,7 +7164,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -6265,7 +7181,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -6282,7 +7198,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -6299,7 +7215,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -6316,7 +7232,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -6333,7 +7249,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -6350,7 +7266,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -6367,7 +7283,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -6384,7 +7300,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -6401,7 +7317,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
@@ -6418,7 +7334,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -6435,7 +7351,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
@@ -6452,7 +7368,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -6469,7 +7385,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -6486,7 +7402,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -6503,7 +7419,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -6521,7 +7437,7 @@
       <c r="O50" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -6529,56 +7445,56 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="17" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="17" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="16" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="15" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="15" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.375" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="32.625" style="9" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="20.5" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.625" style="25" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="16.375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="11.375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="29.625" collapsed="true"/>
+    <col min="5" max="7" customWidth="true" style="9" width="32.625" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="9" width="20.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="25" width="20.625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
@@ -6609,7 +7525,7 @@
       <c r="N1" s="64"/>
       <c r="O1" s="65"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="66" t="s">
         <v>28</v>
       </c>
@@ -6630,7 +7546,7 @@
       <c r="N2" s="70"/>
       <c r="O2" s="71"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -6647,7 +7563,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>226</v>
       </c>
@@ -6692,7 +7608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>277</v>
       </c>
@@ -6717,7 +7633,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
@@ -6744,7 +7660,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12" t="s">
@@ -6767,7 +7683,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -6790,7 +7706,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="12" t="s">
@@ -6817,7 +7733,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>600</v>
       </c>
@@ -6844,7 +7760,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12" t="s">
@@ -6871,7 +7787,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
@@ -6894,7 +7810,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
@@ -6919,7 +7835,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12" t="s">
@@ -6944,7 +7860,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12" t="s">
@@ -6971,7 +7887,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12" t="s">
@@ -6994,7 +7910,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12" t="s">
@@ -7019,7 +7935,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12"/>
@@ -7036,7 +7952,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12"/>
@@ -7053,7 +7969,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12"/>
@@ -7070,7 +7986,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12"/>
@@ -7087,7 +8003,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12"/>
@@ -7104,7 +8020,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12"/>
@@ -7121,7 +8037,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12"/>
@@ -7138,7 +8054,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
@@ -7155,7 +8071,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12"/>
@@ -7172,7 +8088,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
@@ -7189,7 +8105,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
@@ -7206,7 +8122,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="12"/>
@@ -7223,7 +8139,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="12"/>
@@ -7240,7 +8156,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="7"/>
       <c r="C31" s="12"/>
@@ -7257,7 +8173,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
@@ -7274,7 +8190,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
@@ -7291,7 +8207,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
@@ -7308,7 +8224,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -7325,7 +8241,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -7342,7 +8258,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -7359,7 +8275,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -7376,7 +8292,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -7393,7 +8309,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -7410,7 +8326,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -7427,7 +8343,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -7444,7 +8360,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -7461,7 +8377,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
@@ -7478,7 +8394,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -7495,7 +8411,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
@@ -7512,7 +8428,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -7529,7 +8445,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -7546,7 +8462,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -7563,7 +8479,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -7581,7 +8497,7 @@
       <c r="O50" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -7589,58 +8505,58 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="14" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="13" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="12" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="64.375" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="54" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="53.5" style="9" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="20.5" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.625" style="25" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="11.125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="64.375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="31.375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="54.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="9" width="53.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="9" width="8.625" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="9" width="20.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="25" width="20.625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
@@ -7671,7 +8587,7 @@
       <c r="N1" s="64"/>
       <c r="O1" s="65"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="66" t="s">
         <v>28</v>
       </c>
@@ -7692,7 +8608,7 @@
       <c r="N2" s="70"/>
       <c r="O2" s="71"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -7709,7 +8625,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>226</v>
       </c>
@@ -7754,7 +8670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>362</v>
       </c>
@@ -7781,7 +8697,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
@@ -7804,7 +8720,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>355</v>
@@ -7831,7 +8747,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>363</v>
@@ -7858,7 +8774,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>364</v>
@@ -7883,7 +8799,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>365</v>
@@ -7908,7 +8824,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="30" t="s">
         <v>366</v>
@@ -7935,7 +8851,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="36.950000000000003" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>367</v>
@@ -7964,7 +8880,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>361</v>
       </c>
@@ -7989,7 +8905,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>356</v>
@@ -8016,7 +8932,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="38.1" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12" t="s">
@@ -8039,7 +8955,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12"/>
@@ -8056,7 +8972,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12"/>
@@ -8073,7 +8989,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12"/>
@@ -8090,7 +9006,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12"/>
@@ -8107,7 +9023,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12"/>
@@ -8124,7 +9040,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12"/>
@@ -8141,7 +9057,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12"/>
@@ -8158,7 +9074,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12"/>
@@ -8175,7 +9091,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12"/>
@@ -8192,7 +9108,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
@@ -8209,7 +9125,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12"/>
@@ -8226,7 +9142,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
@@ -8243,7 +9159,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
@@ -8260,7 +9176,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="12"/>
@@ -8277,7 +9193,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="12"/>
@@ -8294,7 +9210,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="12"/>
@@ -8311,7 +9227,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="7"/>
       <c r="C32" s="12"/>
@@ -8328,7 +9244,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
@@ -8345,7 +9261,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
@@ -8362,7 +9278,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -8379,7 +9295,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -8396,7 +9312,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -8413,7 +9329,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -8430,7 +9346,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -8447,7 +9363,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -8464,7 +9380,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -8481,7 +9397,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -8498,7 +9414,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -8515,7 +9431,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
@@ -8532,7 +9448,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -8549,7 +9465,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
@@ -8566,7 +9482,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -8583,7 +9499,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -8600,7 +9516,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -8617,7 +9533,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -8635,7 +9551,7 @@
       <c r="O50" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -8643,57 +9559,57 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="11" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="11" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="10" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="9" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0900-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:O51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="57" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.875" style="48" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="49" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37.5" style="45" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.5" style="45" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="77.875" style="45" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="18.5" style="45" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.5" style="50" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="51" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="52" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="53" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" style="52" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="51" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="35" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="57" width="18.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="48" width="28.875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="49" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="45" width="37.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="45" width="49.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="45" width="77.875" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="45" width="18.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="50" width="18.5" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="51" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="52" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="53" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="52" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="51" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="35" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="54" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="23.1" r="1" s="54" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
@@ -8724,7 +9640,7 @@
       <c r="N1" s="64"/>
       <c r="O1" s="65"/>
     </row>
-    <row r="2" spans="1:15" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="48.95" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="66" t="s">
         <v>528</v>
       </c>
@@ -8745,7 +9661,7 @@
       <c r="N2" s="74"/>
       <c r="O2" s="75"/>
     </row>
-    <row r="3" spans="1:15" s="54" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="9.9499999999999993" r="3" s="54" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -8762,7 +9678,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="55" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="55" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>226</v>
       </c>
@@ -8807,7 +9723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
         <v>405</v>
       </c>
@@ -8834,7 +9750,7 @@
       <c r="N5" s="38"/>
       <c r="O5" s="34"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
       <c r="B6" s="36"/>
       <c r="C6" s="39" t="s">
@@ -8859,7 +9775,7 @@
       <c r="N6" s="38"/>
       <c r="O6" s="34"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
       <c r="B7" s="36"/>
       <c r="C7" s="39" t="s">
@@ -8882,7 +9798,7 @@
       <c r="N7" s="38"/>
       <c r="O7" s="34"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
       <c r="B8" s="36"/>
       <c r="C8" s="39" t="s">
@@ -8905,7 +9821,7 @@
       <c r="N8" s="38"/>
       <c r="O8" s="34"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
       <c r="B9" s="36"/>
       <c r="C9" s="39" t="s">
@@ -8928,7 +9844,7 @@
       <c r="N9" s="38"/>
       <c r="O9" s="34"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
       <c r="B10" s="42" t="s">
         <v>417</v>
@@ -8955,7 +9871,7 @@
       <c r="N10" s="38"/>
       <c r="O10" s="34"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
       <c r="B11" s="36"/>
       <c r="C11" s="39" t="s">
@@ -8980,7 +9896,7 @@
       <c r="N11" s="38"/>
       <c r="O11" s="34"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
       <c r="B12" s="36" t="s">
         <v>421</v>
@@ -9005,7 +9921,7 @@
       <c r="N12" s="38"/>
       <c r="O12" s="34"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
       <c r="B13" s="36" t="s">
         <v>422</v>
@@ -9030,7 +9946,7 @@
       <c r="N13" s="38"/>
       <c r="O13" s="34"/>
     </row>
-    <row r="14" spans="1:15" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="138" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
         <v>402</v>
       </c>
@@ -9057,7 +9973,7 @@
       <c r="N14" s="38"/>
       <c r="O14" s="34"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
       <c r="B15" s="36"/>
       <c r="C15" s="39" t="s">
@@ -9080,7 +9996,7 @@
       <c r="N15" s="38"/>
       <c r="O15" s="34"/>
     </row>
-    <row r="16" spans="1:15" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="92.1" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="56" t="s">
         <v>406</v>
       </c>
@@ -9107,7 +10023,7 @@
       <c r="N16" s="38"/>
       <c r="O16" s="34"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
       <c r="B17" s="36"/>
       <c r="C17" s="39" t="s">
@@ -9130,7 +10046,7 @@
       <c r="N17" s="38"/>
       <c r="O17" s="34"/>
     </row>
-    <row r="18" spans="1:15" ht="273" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="273" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
         <v>410</v>
       </c>
@@ -9157,7 +10073,7 @@
       <c r="N18" s="38"/>
       <c r="O18" s="34"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
       <c r="B19" s="36" t="s">
         <v>470</v>
@@ -9182,7 +10098,7 @@
       <c r="N19" s="38"/>
       <c r="O19" s="34"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
       <c r="B20" s="36"/>
       <c r="C20" s="39" t="s">
@@ -9205,7 +10121,7 @@
       <c r="N20" s="38"/>
       <c r="O20" s="34"/>
     </row>
-    <row r="21" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
       <c r="B21" s="36"/>
       <c r="C21" s="39" t="s">
@@ -9228,7 +10144,7 @@
       <c r="N21" s="38"/>
       <c r="O21" s="34"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
       <c r="B22" s="36" t="s">
         <v>527</v>
@@ -9257,7 +10173,7 @@
       <c r="N22" s="38"/>
       <c r="O22" s="34"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
       <c r="B23" s="36"/>
       <c r="C23" s="39" t="s">
@@ -9280,7 +10196,7 @@
       <c r="N23" s="38"/>
       <c r="O23" s="34"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="56" t="s">
         <v>416</v>
       </c>
@@ -9307,7 +10223,7 @@
       <c r="N24" s="38"/>
       <c r="O24" s="34"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
       <c r="B25" s="36"/>
       <c r="C25" s="39" t="s">
@@ -9330,7 +10246,7 @@
       <c r="N25" s="38"/>
       <c r="O25" s="34"/>
     </row>
-    <row r="26" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.100000000000001" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
       <c r="B26" s="36"/>
       <c r="C26" s="39" t="s">
@@ -9353,7 +10269,7 @@
       <c r="N26" s="38"/>
       <c r="O26" s="34"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
       <c r="B27" s="36"/>
       <c r="C27" s="39" t="s">
@@ -9376,7 +10292,7 @@
       <c r="N27" s="38"/>
       <c r="O27" s="34"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="56" t="s">
         <v>444</v>
       </c>
@@ -9401,7 +10317,7 @@
       <c r="N28" s="38"/>
       <c r="O28" s="34"/>
     </row>
-    <row r="29" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+    <row ht="120" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
       <c r="B29" s="36" t="s">
         <v>445</v>
@@ -9430,7 +10346,7 @@
       <c r="N29" s="38"/>
       <c r="O29" s="34"/>
     </row>
-    <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
       <c r="B30" s="36"/>
       <c r="C30" s="39" t="s">
@@ -9715,7 +10631,7 @@
       <c r="N40" s="38"/>
       <c r="O40" s="34"/>
     </row>
-    <row r="41" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="56"/>
       <c r="B41" s="36" t="s">
         <v>457</v>
@@ -9817,7 +10733,7 @@
       <c r="N44" s="38"/>
       <c r="O44" s="34"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="56"/>
       <c r="B45" s="36"/>
       <c r="C45" s="39" t="s">
@@ -9840,7 +10756,7 @@
       <c r="N45" s="38"/>
       <c r="O45" s="34"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="56"/>
       <c r="B46" s="36"/>
       <c r="C46" s="39"/>
@@ -9857,7 +10773,7 @@
       <c r="N46" s="38"/>
       <c r="O46" s="34"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="56"/>
       <c r="B47" s="36"/>
       <c r="C47" s="39"/>
@@ -9874,7 +10790,7 @@
       <c r="N47" s="38"/>
       <c r="O47" s="34"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="56"/>
       <c r="B48" s="36"/>
       <c r="C48" s="39"/>
@@ -9891,7 +10807,7 @@
       <c r="N48" s="38"/>
       <c r="O48" s="34"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="56"/>
       <c r="B49" s="36"/>
       <c r="C49" s="39" t="s">
@@ -9918,7 +10834,7 @@
       <c r="N49" s="38"/>
       <c r="O49" s="34"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="56"/>
       <c r="B50" s="36"/>
       <c r="C50" s="39" t="s">
@@ -9945,7 +10861,7 @@
       <c r="N50" s="38"/>
       <c r="O50" s="34"/>
     </row>
-    <row r="51" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="56"/>
       <c r="B51" s="36"/>
       <c r="C51" s="39" t="s">
@@ -9971,7 +10887,7 @@
       <c r="O51" s="34"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -9980,56 +10896,56 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="8" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="7" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="6" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C13 C15:C51" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+  <dataValidations count="2" disablePrompts="1">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C13 C15:C51" type="list" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D13 D15:D51" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D13 D15:D51" type="list" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.5" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="18.375" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.375" style="25" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="19.625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="11.625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="29.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="49.0" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="9" width="18.375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="25" width="18.375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
@@ -10060,7 +10976,7 @@
       <c r="N1" s="64"/>
       <c r="O1" s="65"/>
     </row>
-    <row r="2" spans="1:15" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="99" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="66"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -10079,7 +10995,7 @@
       <c r="N2" s="70"/>
       <c r="O2" s="71"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -10096,7 +11012,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>226</v>
       </c>
@@ -10141,7 +11057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>424</v>
       </c>
@@ -10168,7 +11084,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
@@ -10193,7 +11109,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12" t="s">
@@ -10218,7 +11134,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -10243,7 +11159,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="12" t="s">
@@ -10268,7 +11184,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="28"/>
       <c r="C10" s="12"/>
@@ -10285,7 +11201,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12"/>
@@ -10302,7 +11218,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
@@ -10319,7 +11235,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12"/>
@@ -10336,7 +11252,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12"/>
@@ -10353,7 +11269,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12"/>
@@ -10370,7 +11286,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12"/>
@@ -10387,7 +11303,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12"/>
@@ -10404,7 +11320,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12"/>
@@ -10421,7 +11337,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12"/>
@@ -10455,7 +11371,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12"/>
@@ -10489,7 +11405,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12"/>
@@ -10523,7 +11439,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
@@ -10540,7 +11456,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12"/>
@@ -10557,7 +11473,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
@@ -10574,7 +11490,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
@@ -10591,7 +11507,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="12"/>
@@ -10608,7 +11524,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="12"/>
@@ -10625,7 +11541,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="12"/>
@@ -10642,7 +11558,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.100000000000001" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
@@ -10659,7 +11575,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
@@ -10676,7 +11592,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="I34" s="6"/>
@@ -10687,7 +11603,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -10704,7 +11620,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -10721,7 +11637,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -10738,7 +11654,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -10755,7 +11671,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -10772,7 +11688,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -10789,7 +11705,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -10806,7 +11722,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -10823,7 +11739,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -10840,7 +11756,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="7"/>
       <c r="C44" s="12"/>
@@ -10857,7 +11773,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -10874,7 +11790,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
@@ -10891,7 +11807,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -10908,7 +11824,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -10925,7 +11841,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -10942,7 +11858,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -10960,7 +11876,7 @@
       <c r="O50" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -10968,57 +11884,57 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C19 C35:C50 C21:C33" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C19 C35:C50 C21:C33" type="list" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D19 D21:D33 D35:D50" xr:uid="{00000000-0002-0000-0C00-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D19 D21:D33 D35:D50" type="list" xr:uid="{00000000-0002-0000-0C00-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.125" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.625" style="9" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="11.375" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="63.875" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="21.125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="30.875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="29.375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="35.125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="9" width="20.625" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="9" width="11.375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="25" width="63.875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
@@ -11049,7 +11965,7 @@
       <c r="N1" s="64"/>
       <c r="O1" s="65"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="66" t="s">
         <v>225</v>
       </c>
@@ -11072,7 +11988,7 @@
       <c r="N2" s="70"/>
       <c r="O2" s="71"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -11089,7 +12005,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>226</v>
       </c>
@@ -11134,7 +12050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>266</v>
       </c>
@@ -11163,7 +12079,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="4" t="s">
         <v>269</v>
@@ -11190,7 +12106,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
       <c r="B7" s="4" t="s">
         <v>267</v>
@@ -11217,7 +12133,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -11240,7 +12156,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>606</v>
       </c>
@@ -11269,7 +12185,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="59"/>
       <c r="C10" s="12" t="s">
@@ -11294,7 +12210,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="59"/>
       <c r="C11" s="12" t="s">
@@ -11319,7 +12235,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="59" t="s">
         <v>615</v>
@@ -11348,7 +12264,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="59" t="s">
         <v>614</v>
@@ -11375,7 +12291,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="60" t="s">
         <v>617</v>
@@ -11402,7 +12318,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="59"/>
       <c r="C15" s="12" t="s">
@@ -11427,7 +12343,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="59"/>
       <c r="C16" s="12" t="s">
@@ -11452,7 +12368,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="59" t="s">
         <v>615</v>
@@ -11481,7 +12397,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="59" t="s">
         <v>614</v>
@@ -11508,7 +12424,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>497</v>
       </c>
@@ -11537,7 +12453,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="4" t="s">
         <v>498</v>
@@ -11564,7 +12480,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="4" t="s">
         <v>499</v>
@@ -11591,7 +12507,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12" t="s">
@@ -11614,7 +12530,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12"/>
@@ -11631,7 +12547,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12"/>
@@ -11648,7 +12564,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>271</v>
       </c>
@@ -11677,7 +12593,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12" t="s">
@@ -11700,7 +12616,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
@@ -11717,7 +12633,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
@@ -11734,7 +12650,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="12"/>
@@ -11751,7 +12667,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="12"/>
@@ -11768,7 +12684,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="12"/>
@@ -11785,7 +12701,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
@@ -11802,7 +12718,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
@@ -11819,7 +12735,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
@@ -11836,7 +12752,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -11853,7 +12769,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -11870,7 +12786,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -11887,7 +12803,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -11904,7 +12820,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -11921,7 +12837,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -11938,7 +12854,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -11955,7 +12871,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -11972,7 +12888,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -11989,7 +12905,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
@@ -12006,7 +12922,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -12023,7 +12939,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="7"/>
       <c r="C46" s="12"/>
@@ -12040,7 +12956,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -12057,7 +12973,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -12074,7 +12990,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -12091,7 +13007,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -12109,7 +13025,7 @@
       <c r="O50" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -12117,25 +13033,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0D00-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0D00-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part2.xlsx
@@ -26,13 +26,13 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -52,15 +52,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="805">
   <si>
     <t>description</t>
   </si>
@@ -2530,13 +2530,19 @@
   <si>
     <t>waitUntilVisible(locator,waitMs)</t>
   </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="68" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2866,8 +2872,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="55">
+  <fills count="79">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2902,6 +3015,142 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3368,7 +3617,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="127">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3685,55 +3934,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="36" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="37" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="40" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="51" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="51" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="78" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4236,7 +4536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -4331,24 +4631,21 @@
         <v>740</v>
       </c>
       <c r="AA1" t="s">
-        <v>750</v>
+        <v>32</v>
       </c>
       <c r="AB1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AD1" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="AE1" t="s">
-        <v>131</v>
+        <v>559</v>
       </c>
       <c r="AF1" t="s">
-        <v>559</v>
-      </c>
-      <c r="AG1" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4381,7 +4678,7 @@
         <v>593</v>
       </c>
       <c r="J2" t="s">
-        <v>145</v>
+        <v>804</v>
       </c>
       <c r="K2" t="s">
         <v>634</v>
@@ -4432,24 +4729,21 @@
         <v>744</v>
       </c>
       <c r="AA2" t="s">
-        <v>758</v>
+        <v>45</v>
       </c>
       <c r="AB2" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="AC2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AD2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AE2" t="s">
-        <v>133</v>
+        <v>576</v>
       </c>
       <c r="AF2" t="s">
-        <v>576</v>
-      </c>
-      <c r="AG2" t="s">
         <v>658</v>
       </c>
     </row>
@@ -4479,7 +4773,7 @@
         <v>176</v>
       </c>
       <c r="J3" t="s">
-        <v>645</v>
+        <v>145</v>
       </c>
       <c r="K3" t="s">
         <v>437</v>
@@ -4524,24 +4818,21 @@
         <v>745</v>
       </c>
       <c r="AA3" t="s">
-        <v>759</v>
+        <v>46</v>
       </c>
       <c r="AB3" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AC3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AD3" t="s">
-        <v>125</v>
+        <v>481</v>
       </c>
       <c r="AE3" t="s">
-        <v>481</v>
+        <v>132</v>
       </c>
       <c r="AF3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG3" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4568,7 +4859,7 @@
         <v>594</v>
       </c>
       <c r="J4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="K4" t="s">
         <v>438</v>
@@ -4613,24 +4904,21 @@
         <v>746</v>
       </c>
       <c r="AA4" t="s">
-        <v>760</v>
+        <v>724</v>
       </c>
       <c r="AB4" t="s">
-        <v>724</v>
+        <v>121</v>
       </c>
       <c r="AC4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AD4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AE4" t="s">
-        <v>132</v>
+        <v>577</v>
       </c>
       <c r="AF4" t="s">
-        <v>577</v>
-      </c>
-      <c r="AG4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4657,7 +4945,7 @@
         <v>598</v>
       </c>
       <c r="J5" t="s">
-        <v>693</v>
+        <v>646</v>
       </c>
       <c r="K5" t="s">
         <v>439</v>
@@ -4690,24 +4978,21 @@
         <v>476</v>
       </c>
       <c r="AA5" t="s">
-        <v>761</v>
+        <v>718</v>
       </c>
       <c r="AB5" t="s">
-        <v>718</v>
+        <v>122</v>
       </c>
       <c r="AC5" t="s">
-        <v>122</v>
+        <v>735</v>
       </c>
       <c r="AD5" t="s">
-        <v>735</v>
+        <v>134</v>
       </c>
       <c r="AE5" t="s">
-        <v>134</v>
+        <v>578</v>
       </c>
       <c r="AF5" t="s">
-        <v>578</v>
-      </c>
-      <c r="AG5" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4734,7 +5019,7 @@
         <v>591</v>
       </c>
       <c r="J6" t="s">
-        <v>722</v>
+        <v>693</v>
       </c>
       <c r="K6" t="s">
         <v>739</v>
@@ -4764,24 +5049,21 @@
         <v>478</v>
       </c>
       <c r="AA6" t="s">
-        <v>762</v>
+        <v>47</v>
       </c>
       <c r="AB6" t="s">
-        <v>47</v>
+        <v>588</v>
       </c>
       <c r="AC6" t="s">
-        <v>588</v>
+        <v>127</v>
       </c>
       <c r="AD6" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="AE6" t="s">
-        <v>135</v>
+        <v>579</v>
       </c>
       <c r="AF6" t="s">
-        <v>579</v>
-      </c>
-      <c r="AG6" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4801,6 +5083,9 @@
       <c r="I7" t="s">
         <v>590</v>
       </c>
+      <c r="J7" t="s">
+        <v>722</v>
+      </c>
       <c r="K7" t="s">
         <v>436</v>
       </c>
@@ -4829,24 +5114,21 @@
         <v>477</v>
       </c>
       <c r="AA7" t="s">
-        <v>763</v>
+        <v>48</v>
       </c>
       <c r="AB7" t="s">
-        <v>48</v>
+        <v>589</v>
       </c>
       <c r="AC7" t="s">
-        <v>589</v>
+        <v>128</v>
       </c>
       <c r="AD7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="AE7" t="s">
-        <v>136</v>
+        <v>580</v>
       </c>
       <c r="AF7" t="s">
-        <v>580</v>
-      </c>
-      <c r="AG7" t="s">
         <v>699</v>
       </c>
     </row>
@@ -4894,24 +5176,21 @@
         <v>479</v>
       </c>
       <c r="AA8" t="s">
-        <v>764</v>
+        <v>49</v>
       </c>
       <c r="AB8" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="AC8" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AD8" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="AE8" t="s">
-        <v>137</v>
+        <v>581</v>
       </c>
       <c r="AF8" t="s">
-        <v>581</v>
-      </c>
-      <c r="AG8" t="s">
         <v>700</v>
       </c>
     </row>
@@ -4956,18 +5235,15 @@
         <v>480</v>
       </c>
       <c r="AA9" t="s">
-        <v>765</v>
-      </c>
-      <c r="AB9" t="s">
         <v>207</v>
       </c>
+      <c r="AC9" t="s">
+        <v>130</v>
+      </c>
       <c r="AD9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE9" t="s">
         <v>180</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>701</v>
       </c>
     </row>
@@ -5003,18 +5279,15 @@
         <v>549</v>
       </c>
       <c r="AA10" t="s">
-        <v>766</v>
-      </c>
-      <c r="AB10" t="s">
         <v>284</v>
       </c>
+      <c r="AC10" t="s">
+        <v>736</v>
+      </c>
       <c r="AD10" t="s">
-        <v>736</v>
-      </c>
-      <c r="AE10" t="s">
         <v>181</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5023,7 +5296,7 @@
         <v>215</v>
       </c>
       <c r="F11" t="s">
-        <v>717</v>
+        <v>803</v>
       </c>
       <c r="H11" t="s">
         <v>440</v>
@@ -5047,15 +5320,12 @@
         <v>757</v>
       </c>
       <c r="AA11" t="s">
-        <v>767</v>
-      </c>
-      <c r="AB11" t="s">
         <v>285</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>286</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5064,7 +5334,7 @@
         <v>144</v>
       </c>
       <c r="F12" t="s">
-        <v>347</v>
+        <v>717</v>
       </c>
       <c r="H12" t="s">
         <v>301</v>
@@ -5088,15 +5358,12 @@
         <v>254</v>
       </c>
       <c r="AA12" t="s">
-        <v>768</v>
-      </c>
-      <c r="AB12" t="s">
         <v>50</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>138</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>240</v>
       </c>
     </row>
@@ -5105,7 +5372,7 @@
         <v>381</v>
       </c>
       <c r="F13" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="H13" t="s">
         <v>290</v>
@@ -5129,15 +5396,12 @@
         <v>255</v>
       </c>
       <c r="AA13" t="s">
-        <v>769</v>
-      </c>
-      <c r="AB13" t="s">
         <v>372</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>139</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>642</v>
       </c>
     </row>
@@ -5146,7 +5410,7 @@
         <v>183</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>392</v>
       </c>
       <c r="H14" t="s">
         <v>344</v>
@@ -5167,15 +5431,12 @@
         <v>728</v>
       </c>
       <c r="AA14" t="s">
-        <v>770</v>
-      </c>
-      <c r="AB14" t="s">
         <v>51</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>140</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>659</v>
       </c>
     </row>
@@ -5184,7 +5445,7 @@
         <v>679</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
         <v>291</v>
@@ -5205,15 +5466,12 @@
         <v>260</v>
       </c>
       <c r="AA15" t="s">
-        <v>771</v>
-      </c>
-      <c r="AB15" t="s">
         <v>747</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>141</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>660</v>
       </c>
     </row>
@@ -5222,7 +5480,7 @@
         <v>644</v>
       </c>
       <c r="F16" t="s">
-        <v>504</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
         <v>292</v>
@@ -5243,15 +5501,12 @@
         <v>256</v>
       </c>
       <c r="AA16" t="s">
-        <v>772</v>
-      </c>
-      <c r="AB16" t="s">
         <v>729</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>142</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>664</v>
       </c>
     </row>
@@ -5260,7 +5515,7 @@
         <v>194</v>
       </c>
       <c r="F17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H17" t="s">
         <v>345</v>
@@ -5275,15 +5530,12 @@
         <v>257</v>
       </c>
       <c r="AA17" t="s">
-        <v>773</v>
-      </c>
-      <c r="AB17" t="s">
         <v>52</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>631</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>665</v>
       </c>
     </row>
@@ -5292,7 +5544,7 @@
         <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>560</v>
+        <v>505</v>
       </c>
       <c r="H18" t="s">
         <v>178</v>
@@ -5307,12 +5559,9 @@
         <v>258</v>
       </c>
       <c r="AA18" t="s">
-        <v>774</v>
-      </c>
-      <c r="AB18" t="s">
         <v>44</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>643</v>
       </c>
     </row>
@@ -5321,7 +5570,7 @@
         <v>245</v>
       </c>
       <c r="F19" t="s">
-        <v>751</v>
+        <v>560</v>
       </c>
       <c r="H19" t="s">
         <v>179</v>
@@ -5330,12 +5579,9 @@
         <v>599</v>
       </c>
       <c r="AA19" t="s">
-        <v>775</v>
-      </c>
-      <c r="AB19" t="s">
         <v>669</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>661</v>
       </c>
     </row>
@@ -5344,7 +5590,7 @@
         <v>182</v>
       </c>
       <c r="F20" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H20" t="s">
         <v>323</v>
@@ -5353,12 +5599,9 @@
         <v>170</v>
       </c>
       <c r="AA20" t="s">
-        <v>776</v>
-      </c>
-      <c r="AB20" t="s">
         <v>53</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>662</v>
       </c>
     </row>
@@ -5367,7 +5610,7 @@
         <v>540</v>
       </c>
       <c r="F21" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H21" t="s">
         <v>324</v>
@@ -5376,12 +5619,9 @@
         <v>171</v>
       </c>
       <c r="AA21" t="s">
-        <v>777</v>
-      </c>
-      <c r="AB21" t="s">
         <v>54</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>666</v>
       </c>
     </row>
@@ -5390,7 +5630,7 @@
         <v>557</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>753</v>
       </c>
       <c r="H22" t="s">
         <v>325</v>
@@ -5399,12 +5639,9 @@
         <v>721</v>
       </c>
       <c r="AA22" t="s">
-        <v>778</v>
-      </c>
-      <c r="AB22" t="s">
         <v>55</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5413,7 +5650,7 @@
         <v>558</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23" t="s">
         <v>326</v>
@@ -5422,12 +5659,9 @@
         <v>638</v>
       </c>
       <c r="AA23" t="s">
-        <v>779</v>
-      </c>
-      <c r="AB23" t="s">
         <v>56</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>702</v>
       </c>
     </row>
@@ -5436,7 +5670,7 @@
         <v>474</v>
       </c>
       <c r="F24" t="s">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="H24" t="s">
         <v>317</v>
@@ -5445,12 +5679,9 @@
         <v>150</v>
       </c>
       <c r="AA24" t="s">
-        <v>780</v>
-      </c>
-      <c r="AB24" t="s">
         <v>650</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>703</v>
       </c>
     </row>
@@ -5459,7 +5690,7 @@
         <v>536</v>
       </c>
       <c r="F25" t="s">
-        <v>754</v>
+        <v>276</v>
       </c>
       <c r="H25" t="s">
         <v>306</v>
@@ -5468,12 +5699,9 @@
         <v>511</v>
       </c>
       <c r="AA25" t="s">
-        <v>781</v>
-      </c>
-      <c r="AB25" t="s">
         <v>57</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>704</v>
       </c>
     </row>
@@ -5482,7 +5710,7 @@
         <v>740</v>
       </c>
       <c r="F26" t="s">
-        <v>705</v>
+        <v>754</v>
       </c>
       <c r="H26" t="s">
         <v>156</v>
@@ -5491,21 +5719,18 @@
         <v>756</v>
       </c>
       <c r="AA26" t="s">
-        <v>782</v>
-      </c>
-      <c r="AB26" t="s">
         <v>709</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>750</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>705</v>
       </c>
       <c r="H27" t="s">
         <v>309</v>
@@ -5514,21 +5739,18 @@
         <v>690</v>
       </c>
       <c r="AA27" t="s">
-        <v>783</v>
-      </c>
-      <c r="AB27" t="s">
         <v>58</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>357</v>
+        <v>39</v>
       </c>
       <c r="H28" t="s">
         <v>293</v>
@@ -5537,18 +5759,15 @@
         <v>151</v>
       </c>
       <c r="AA28" t="s">
-        <v>784</v>
-      </c>
-      <c r="AB28" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="H29" t="s">
         <v>310</v>
@@ -5557,18 +5776,15 @@
         <v>585</v>
       </c>
       <c r="AA29" t="s">
-        <v>785</v>
-      </c>
-      <c r="AB29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>592</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s">
         <v>311</v>
@@ -5577,18 +5793,15 @@
         <v>152</v>
       </c>
       <c r="AA30" t="s">
-        <v>786</v>
-      </c>
-      <c r="AB30" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>559</v>
       </c>
       <c r="F31" t="s">
-        <v>230</v>
+        <v>592</v>
       </c>
       <c r="H31" t="s">
         <v>217</v>
@@ -5597,187 +5810,163 @@
         <v>153</v>
       </c>
       <c r="AA31" t="s">
-        <v>787</v>
-      </c>
-      <c r="AB31" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>559</v>
+        <v>233</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H32" t="s">
         <v>302</v>
       </c>
       <c r="AA32" t="s">
-        <v>788</v>
-      </c>
-      <c r="AB32" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>233</v>
-      </c>
       <c r="F33" t="s">
-        <v>636</v>
+        <v>231</v>
       </c>
       <c r="H33" t="s">
         <v>312</v>
       </c>
       <c r="AA33" t="s">
-        <v>789</v>
-      </c>
-      <c r="AB33" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H34" t="s">
         <v>675</v>
       </c>
       <c r="AA34" t="s">
-        <v>790</v>
-      </c>
-      <c r="AB34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>561</v>
+        <v>637</v>
       </c>
       <c r="H35" t="s">
         <v>287</v>
       </c>
       <c r="AA35" t="s">
-        <v>791</v>
-      </c>
-      <c r="AB35" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>158</v>
+        <v>561</v>
       </c>
       <c r="H36" t="s">
         <v>376</v>
       </c>
       <c r="AA36" t="s">
-        <v>792</v>
-      </c>
-      <c r="AB36" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="H37" t="s">
         <v>335</v>
       </c>
       <c r="AA37" t="s">
-        <v>793</v>
-      </c>
-      <c r="AB37" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H38" t="s">
         <v>288</v>
       </c>
       <c r="AA38" t="s">
-        <v>794</v>
-      </c>
-      <c r="AB38" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="H39" t="s">
         <v>336</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H40" t="s">
         <v>294</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H41" t="s">
         <v>157</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="H42" t="s">
         <v>216</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="H43" t="s">
         <v>706</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>755</v>
+        <v>154</v>
       </c>
       <c r="H44" t="s">
         <v>316</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>755</v>
+      </c>
       <c r="H45" t="s">
         <v>327</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5785,7 +5974,7 @@
       <c r="H46" t="s">
         <v>328</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5793,7 +5982,7 @@
       <c r="H47" t="s">
         <v>394</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5801,7 +5990,7 @@
       <c r="H48" t="s">
         <v>393</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5809,7 +5998,7 @@
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5817,7 +6006,7 @@
       <c r="H50" t="s">
         <v>329</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5825,7 +6014,7 @@
       <c r="H51" t="s">
         <v>390</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>748</v>
       </c>
     </row>
@@ -5833,7 +6022,7 @@
       <c r="H52" t="s">
         <v>485</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5841,7 +6030,7 @@
       <c r="H53" t="s">
         <v>330</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5849,7 +6038,7 @@
       <c r="H54" t="s">
         <v>473</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>698</v>
       </c>
     </row>
@@ -5857,7 +6046,7 @@
       <c r="H55" t="s">
         <v>377</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5865,7 +6054,7 @@
       <c r="H56" t="s">
         <v>295</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5873,7 +6062,7 @@
       <c r="H57" t="s">
         <v>319</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5881,7 +6070,7 @@
       <c r="H58" t="s">
         <v>320</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5889,7 +6078,7 @@
       <c r="H59" t="s">
         <v>707</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>633</v>
       </c>
     </row>
@@ -5897,7 +6086,7 @@
       <c r="H60" t="s">
         <v>321</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5905,7 +6094,7 @@
       <c r="H61" t="s">
         <v>331</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5913,7 +6102,7 @@
       <c r="H62" t="s">
         <v>340</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>627</v>
       </c>
     </row>
@@ -5921,7 +6110,7 @@
       <c r="H63" t="s">
         <v>388</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5929,7 +6118,7 @@
       <c r="H64" t="s">
         <v>337</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5937,7 +6126,7 @@
       <c r="H65" t="s">
         <v>338</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5945,7 +6134,7 @@
       <c r="H66" t="s">
         <v>486</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5953,7 +6142,7 @@
       <c r="H67" t="s">
         <v>487</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5961,7 +6150,7 @@
       <c r="H68" t="s">
         <v>396</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5969,7 +6158,7 @@
       <c r="H69" t="s">
         <v>341</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5977,7 +6166,7 @@
       <c r="H70" t="s">
         <v>296</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>583</v>
       </c>
     </row>
@@ -5985,7 +6174,7 @@
       <c r="H71" t="s">
         <v>694</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>641</v>
       </c>
     </row>
@@ -5993,7 +6182,7 @@
       <c r="H72" t="s">
         <v>342</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>219</v>
       </c>
     </row>
@@ -6001,7 +6190,7 @@
       <c r="H73" t="s">
         <v>555</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>508</v>
       </c>
     </row>
@@ -6009,7 +6198,7 @@
       <c r="H74" t="s">
         <v>332</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>587</v>
       </c>
     </row>
@@ -6017,7 +6206,7 @@
       <c r="H75" t="s">
         <v>556</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6025,7 +6214,7 @@
       <c r="H76" t="s">
         <v>289</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6033,7 +6222,7 @@
       <c r="H77" t="s">
         <v>676</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>89</v>
       </c>
     </row>
@@ -6041,7 +6230,7 @@
       <c r="H78" t="s">
         <v>395</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>90</v>
       </c>
     </row>
@@ -6049,7 +6238,7 @@
       <c r="H79" t="s">
         <v>307</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>795</v>
       </c>
     </row>
@@ -6057,7 +6246,7 @@
       <c r="H80" t="s">
         <v>313</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6065,7 +6254,7 @@
       <c r="H81" t="s">
         <v>318</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6073,7 +6262,7 @@
       <c r="H82" t="s">
         <v>562</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>597</v>
       </c>
     </row>
@@ -6081,7 +6270,7 @@
       <c r="H83" t="s">
         <v>378</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>635</v>
       </c>
     </row>
@@ -6089,7 +6278,7 @@
       <c r="H84" t="s">
         <v>297</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6097,7 +6286,7 @@
       <c r="H85" t="s">
         <v>308</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>92</v>
       </c>
     </row>
@@ -6105,7 +6294,7 @@
       <c r="H86" t="s">
         <v>314</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6113,7 +6302,7 @@
       <c r="H87" t="s">
         <v>303</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>663</v>
       </c>
     </row>
@@ -6121,7 +6310,7 @@
       <c r="H88" t="s">
         <v>695</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6129,7 +6318,7 @@
       <c r="H89" t="s">
         <v>298</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6137,7 +6326,7 @@
       <c r="H90" t="s">
         <v>315</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6145,7 +6334,7 @@
       <c r="H91" t="s">
         <v>299</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>652</v>
       </c>
     </row>
@@ -6153,7 +6342,7 @@
       <c r="H92" t="s">
         <v>300</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>727</v>
       </c>
     </row>
@@ -6161,7 +6350,7 @@
       <c r="H93" t="s">
         <v>333</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6169,7 +6358,7 @@
       <c r="H94" t="s">
         <v>339</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>596</v>
       </c>
     </row>
@@ -6177,7 +6366,7 @@
       <c r="H95" t="s">
         <v>322</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6185,7 +6374,7 @@
       <c r="H96" t="s">
         <v>391</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6193,7 +6382,7 @@
       <c r="H97" t="s">
         <v>304</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>713</v>
       </c>
     </row>
@@ -6201,272 +6390,272 @@
       <c r="H98" t="s">
         <v>305</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>802</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part2.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4229" uniqueCount="805">
   <si>
     <t>description</t>
   </si>
@@ -2542,7 +2542,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="68" x14ac:knownFonts="1">
+  <fonts count="102" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2979,8 +2979,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="79">
+  <fills count="127">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3015,6 +3229,278 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3617,7 +4103,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="161">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3985,55 +4471,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="51" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="53" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="54" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="66" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="66" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="78" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="78" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="66" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="70" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="71" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="74" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="102" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part2.xlsx
@@ -34,12 +34,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4229" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5439" uniqueCount="809">
   <si>
     <t>description</t>
   </si>
@@ -2536,13 +2536,25 @@
   <si>
     <t>openFile(filePath)</t>
   </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="102" x14ac:knownFonts="1">
+  <fonts count="136" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3193,8 +3205,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="127">
+  <fills count="175">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3229,6 +3455,278 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4103,7 +4601,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="195">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4573,55 +5071,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="87" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="88" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="114" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="117" fontId="91" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="114" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="114" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="129" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="104" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="105" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="141" fontId="108" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5287,7 +5887,7 @@
         <v>647</v>
       </c>
       <c r="Q2" t="s">
-        <v>564</v>
+        <v>806</v>
       </c>
       <c r="R2" t="s">
         <v>565</v>
@@ -5381,6 +5981,9 @@
       <c r="P3" t="s">
         <v>648</v>
       </c>
+      <c r="Q3" t="s">
+        <v>807</v>
+      </c>
       <c r="R3" t="s">
         <v>566</v>
       </c>
@@ -5467,6 +6070,9 @@
       <c r="P4" t="s">
         <v>649</v>
       </c>
+      <c r="Q4" t="s">
+        <v>808</v>
+      </c>
       <c r="R4" t="s">
         <v>19</v>
       </c>
@@ -5678,7 +6284,7 @@
         <v>436</v>
       </c>
       <c r="L7" t="s">
-        <v>174</v>
+        <v>805</v>
       </c>
       <c r="N7" t="s">
         <v>343</v>
@@ -5740,7 +6346,7 @@
         <v>696</v>
       </c>
       <c r="L8" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="N8" t="s">
         <v>188</v>
@@ -5799,7 +6405,7 @@
         <v>375</v>
       </c>
       <c r="L9" t="s">
-        <v>671</v>
+        <v>146</v>
       </c>
       <c r="N9" t="s">
         <v>189</v>
@@ -5849,7 +6455,7 @@
         <v>737</v>
       </c>
       <c r="L10" t="s">
-        <v>167</v>
+        <v>671</v>
       </c>
       <c r="N10" t="s">
         <v>190</v>
@@ -5893,7 +6499,7 @@
         <v>738</v>
       </c>
       <c r="L11" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="N11" t="s">
         <v>639</v>
@@ -5931,7 +6537,7 @@
         <v>595</v>
       </c>
       <c r="L12" t="s">
-        <v>672</v>
+        <v>147</v>
       </c>
       <c r="N12" t="s">
         <v>697</v>
@@ -5969,7 +6575,7 @@
         <v>368</v>
       </c>
       <c r="L13" t="s">
-        <v>509</v>
+        <v>672</v>
       </c>
       <c r="N13" t="s">
         <v>586</v>
@@ -6007,7 +6613,7 @@
         <v>369</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>509</v>
       </c>
       <c r="N14" t="s">
         <v>640</v>
@@ -6042,7 +6648,7 @@
         <v>370</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N15" t="s">
         <v>191</v>
@@ -6077,7 +6683,7 @@
         <v>371</v>
       </c>
       <c r="L16" t="s">
-        <v>673</v>
+        <v>149</v>
       </c>
       <c r="N16" t="s">
         <v>708</v>
@@ -6109,7 +6715,7 @@
         <v>345</v>
       </c>
       <c r="L17" t="s">
-        <v>168</v>
+        <v>673</v>
       </c>
       <c r="N17" t="s">
         <v>192</v>
@@ -6138,7 +6744,7 @@
         <v>178</v>
       </c>
       <c r="L18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N18" t="s">
         <v>193</v>
@@ -6164,7 +6770,7 @@
         <v>179</v>
       </c>
       <c r="L19" t="s">
-        <v>599</v>
+        <v>169</v>
       </c>
       <c r="AA19" t="s">
         <v>669</v>
@@ -6184,7 +6790,7 @@
         <v>323</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>599</v>
       </c>
       <c r="AA20" t="s">
         <v>53</v>
@@ -6204,7 +6810,7 @@
         <v>324</v>
       </c>
       <c r="L21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AA21" t="s">
         <v>54</v>
@@ -6224,7 +6830,7 @@
         <v>325</v>
       </c>
       <c r="L22" t="s">
-        <v>721</v>
+        <v>171</v>
       </c>
       <c r="AA22" t="s">
         <v>55</v>
@@ -6244,7 +6850,7 @@
         <v>326</v>
       </c>
       <c r="L23" t="s">
-        <v>638</v>
+        <v>721</v>
       </c>
       <c r="AA23" t="s">
         <v>56</v>
@@ -6264,7 +6870,7 @@
         <v>317</v>
       </c>
       <c r="L24" t="s">
-        <v>150</v>
+        <v>638</v>
       </c>
       <c r="AA24" t="s">
         <v>650</v>
@@ -6284,7 +6890,7 @@
         <v>306</v>
       </c>
       <c r="L25" t="s">
-        <v>511</v>
+        <v>150</v>
       </c>
       <c r="AA25" t="s">
         <v>57</v>
@@ -6304,7 +6910,7 @@
         <v>156</v>
       </c>
       <c r="L26" t="s">
-        <v>756</v>
+        <v>511</v>
       </c>
       <c r="AA26" t="s">
         <v>709</v>
@@ -6324,7 +6930,7 @@
         <v>309</v>
       </c>
       <c r="L27" t="s">
-        <v>690</v>
+        <v>756</v>
       </c>
       <c r="AA27" t="s">
         <v>58</v>
@@ -6344,7 +6950,7 @@
         <v>293</v>
       </c>
       <c r="L28" t="s">
-        <v>151</v>
+        <v>690</v>
       </c>
       <c r="AA28" t="s">
         <v>59</v>
@@ -6361,7 +6967,7 @@
         <v>310</v>
       </c>
       <c r="L29" t="s">
-        <v>585</v>
+        <v>151</v>
       </c>
       <c r="AA29" t="s">
         <v>60</v>
@@ -6378,7 +6984,7 @@
         <v>311</v>
       </c>
       <c r="L30" t="s">
-        <v>152</v>
+        <v>585</v>
       </c>
       <c r="AA30" t="s">
         <v>61</v>
@@ -6395,7 +7001,7 @@
         <v>217</v>
       </c>
       <c r="L31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA31" t="s">
         <v>373</v>
@@ -6410,6 +7016,9 @@
       </c>
       <c r="H32" t="s">
         <v>302</v>
+      </c>
+      <c r="L32" t="s">
+        <v>153</v>
       </c>
       <c r="AA32" t="s">
         <v>62</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part2.xlsx
@@ -39,12 +39,12 @@
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5439" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6048" uniqueCount="815">
   <si>
     <t>description</t>
   </si>
@@ -2548,13 +2548,31 @@
   <si>
     <t>send(profile,var)</t>
   </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="136" x14ac:knownFonts="1">
+  <fonts count="153" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3419,8 +3437,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="175">
+  <fills count="199">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3455,6 +3580,142 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4601,7 +4862,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="212">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5173,55 +5434,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="156" fontId="121" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="122" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="125" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="171" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="174" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="171" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="186" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="186" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="186" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5887,7 +6199,7 @@
         <v>647</v>
       </c>
       <c r="Q2" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="R2" t="s">
         <v>565</v>
@@ -5982,7 +6294,7 @@
         <v>648</v>
       </c>
       <c r="Q3" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="R3" t="s">
         <v>566</v>
@@ -6071,7 +6383,7 @@
         <v>649</v>
       </c>
       <c r="Q4" t="s">
-        <v>808</v>
+        <v>564</v>
       </c>
       <c r="R4" t="s">
         <v>19</v>
@@ -6153,6 +6465,9 @@
       <c r="O5" t="s">
         <v>691</v>
       </c>
+      <c r="Q5" t="s">
+        <v>811</v>
+      </c>
       <c r="R5" t="s">
         <v>21</v>
       </c>
@@ -6587,7 +6902,7 @@
         <v>165</v>
       </c>
       <c r="S13" t="s">
-        <v>255</v>
+        <v>812</v>
       </c>
       <c r="AA13" t="s">
         <v>372</v>
@@ -6622,7 +6937,7 @@
         <v>166</v>
       </c>
       <c r="S14" t="s">
-        <v>728</v>
+        <v>255</v>
       </c>
       <c r="AA14" t="s">
         <v>51</v>
@@ -6657,7 +6972,7 @@
         <v>667</v>
       </c>
       <c r="S15" t="s">
-        <v>260</v>
+        <v>728</v>
       </c>
       <c r="AA15" t="s">
         <v>747</v>
@@ -6692,7 +7007,7 @@
         <v>668</v>
       </c>
       <c r="S16" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AA16" t="s">
         <v>729</v>
@@ -6721,7 +7036,7 @@
         <v>192</v>
       </c>
       <c r="S17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AA17" t="s">
         <v>52</v>
@@ -6750,7 +7065,7 @@
         <v>193</v>
       </c>
       <c r="S18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA18" t="s">
         <v>44</v>
@@ -6772,6 +7087,9 @@
       <c r="L19" t="s">
         <v>169</v>
       </c>
+      <c r="S19" t="s">
+        <v>813</v>
+      </c>
       <c r="AA19" t="s">
         <v>669</v>
       </c>
@@ -6792,6 +7110,9 @@
       <c r="L20" t="s">
         <v>599</v>
       </c>
+      <c r="S20" t="s">
+        <v>258</v>
+      </c>
       <c r="AA20" t="s">
         <v>53</v>
       </c>
@@ -6811,6 +7132,9 @@
       </c>
       <c r="L21" t="s">
         <v>170</v>
+      </c>
+      <c r="S21" t="s">
+        <v>814</v>
       </c>
       <c r="AA21" t="s">
         <v>54</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part2.xlsx
@@ -26,12 +26,12 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$45</definedName>
+    <definedName name="base">'#system'!$F$2:$F$47</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$32</definedName>
@@ -52,15 +52,17 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$34</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
+    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
+    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
+    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
+    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6048" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6691" uniqueCount="852">
   <si>
     <t>description</t>
   </si>
@@ -2566,13 +2568,124 @@
   <si>
     <t>split(pdf,saveTo)</t>
   </si>
+  <si>
+    <t>webmail</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>assertVarsNotPresent(vars)</t>
+  </si>
+  <si>
+    <t>assertVarsPresent(vars)</t>
+  </si>
+  <si>
+    <t>check(name)</t>
+  </si>
+  <si>
+    <t>checkByLocator(locator)</t>
+  </si>
+  <si>
+    <t>clickMenuByLocator(locator,menu)</t>
+  </si>
+  <si>
+    <t>contextMenu(name,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>contextMenuByLocator(locator,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>doubleClick(name)</t>
+  </si>
+  <si>
+    <t>doubleClickByLocator(locator)</t>
+  </si>
+  <si>
+    <t>rightClickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>rightClickOffset(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAllTableRows(var,csv)</t>
+  </si>
+  <si>
+    <t>saveComboOptions(var,name)</t>
+  </si>
+  <si>
+    <t>saveComboOptionsByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTableRows(var,contains,csv)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow,csv)</t>
+  </si>
+  <si>
+    <t>screenshot(name,file)</t>
+  </si>
+  <si>
+    <t>screenshotByLocator(locator,file)</t>
+  </si>
+  <si>
+    <t>uncheck(name)</t>
+  </si>
+  <si>
+    <t>uncheckByLocator(locator)</t>
+  </si>
+  <si>
+    <t>renameSheet(file,worksheet,newName)</t>
+  </si>
+  <si>
+    <t>xls2xlsx(xlsFile,xlsxFile)</t>
+  </si>
+  <si>
+    <t>assertLocation(search)</t>
+  </si>
+  <si>
+    <t>openInTab(name,url)</t>
+  </si>
+  <si>
+    <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>read(var,profile,id)</t>
+  </si>
+  <si>
+    <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
+  <si>
+    <t>assertContains(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotContain(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotReadOnly(file)</t>
+  </si>
+  <si>
+    <t>assertPassword(file,password)</t>
+  </si>
+  <si>
+    <t>assertReadOnly(file)</t>
+  </si>
+  <si>
+    <t>extractText(var,file)</t>
+  </si>
+  <si>
+    <t>readOnly(file,password)</t>
+  </si>
+  <si>
+    <t>removeProtection(file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="153" x14ac:knownFonts="1">
+  <fonts count="170" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3544,8 +3657,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="199">
+  <fills count="223">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3580,6 +3800,142 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4862,7 +5218,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="229">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5534,6 +5890,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="152" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="201" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="213" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="222" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6036,7 +6443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG151"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -6140,12 +6547,18 @@
         <v>34</v>
       </c>
       <c r="AD1" t="s">
+        <v>815</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>816</v>
+      </c>
+      <c r="AF1" t="s">
         <v>131</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>559</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6238,12 +6651,18 @@
         <v>124</v>
       </c>
       <c r="AD2" t="s">
+        <v>841</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>844</v>
+      </c>
+      <c r="AF2" t="s">
         <v>133</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>576</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>658</v>
       </c>
     </row>
@@ -6330,12 +6749,18 @@
         <v>125</v>
       </c>
       <c r="AD3" t="s">
+        <v>842</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>845</v>
+      </c>
+      <c r="AF3" t="s">
         <v>481</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>132</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6419,12 +6844,18 @@
         <v>126</v>
       </c>
       <c r="AD4" t="s">
+        <v>843</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>846</v>
+      </c>
+      <c r="AF4" t="s">
         <v>132</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>577</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6495,13 +6926,16 @@
       <c r="AC5" t="s">
         <v>735</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>847</v>
+      </c>
+      <c r="AF5" t="s">
         <v>134</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>578</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6566,13 +7000,16 @@
       <c r="AC6" t="s">
         <v>127</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>848</v>
+      </c>
+      <c r="AF6" t="s">
         <v>135</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>579</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>237</v>
       </c>
     </row>
@@ -6631,13 +7068,16 @@
       <c r="AC7" t="s">
         <v>128</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>849</v>
+      </c>
+      <c r="AF7" t="s">
         <v>136</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>580</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>699</v>
       </c>
     </row>
@@ -6655,7 +7095,7 @@
         <v>483</v>
       </c>
       <c r="I8" t="s">
-        <v>374</v>
+        <v>837</v>
       </c>
       <c r="K8" t="s">
         <v>696</v>
@@ -6693,13 +7133,16 @@
       <c r="AC8" t="s">
         <v>129</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>850</v>
+      </c>
+      <c r="AF8" t="s">
         <v>137</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>581</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
         <v>700</v>
       </c>
     </row>
@@ -6717,7 +7160,7 @@
         <v>484</v>
       </c>
       <c r="I9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L9" t="s">
         <v>146</v>
@@ -6749,10 +7192,13 @@
       <c r="AC9" t="s">
         <v>130</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>851</v>
+      </c>
+      <c r="AF9" t="s">
         <v>180</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>701</v>
       </c>
     </row>
@@ -6767,7 +7213,7 @@
         <v>334</v>
       </c>
       <c r="I10" t="s">
-        <v>737</v>
+        <v>375</v>
       </c>
       <c r="L10" t="s">
         <v>671</v>
@@ -6793,10 +7239,10 @@
       <c r="AC10" t="s">
         <v>736</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>181</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>238</v>
       </c>
     </row>
@@ -6811,7 +7257,7 @@
         <v>440</v>
       </c>
       <c r="I11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="L11" t="s">
         <v>167</v>
@@ -6831,10 +7277,10 @@
       <c r="AA11" t="s">
         <v>285</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>286</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6849,7 +7295,7 @@
         <v>301</v>
       </c>
       <c r="I12" t="s">
-        <v>595</v>
+        <v>738</v>
       </c>
       <c r="L12" t="s">
         <v>147</v>
@@ -6869,10 +7315,10 @@
       <c r="AA12" t="s">
         <v>50</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>138</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>240</v>
       </c>
     </row>
@@ -6887,7 +7333,7 @@
         <v>290</v>
       </c>
       <c r="I13" t="s">
-        <v>368</v>
+        <v>595</v>
       </c>
       <c r="L13" t="s">
         <v>672</v>
@@ -6907,10 +7353,10 @@
       <c r="AA13" t="s">
         <v>372</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>139</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>642</v>
       </c>
     </row>
@@ -6925,7 +7371,7 @@
         <v>344</v>
       </c>
       <c r="I14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L14" t="s">
         <v>509</v>
@@ -6942,10 +7388,10 @@
       <c r="AA14" t="s">
         <v>51</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>140</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>659</v>
       </c>
     </row>
@@ -6960,7 +7406,7 @@
         <v>291</v>
       </c>
       <c r="I15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L15" t="s">
         <v>148</v>
@@ -6977,10 +7423,10 @@
       <c r="AA15" t="s">
         <v>747</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>141</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>660</v>
       </c>
     </row>
@@ -6995,7 +7441,7 @@
         <v>292</v>
       </c>
       <c r="I16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L16" t="s">
         <v>149</v>
@@ -7012,10 +7458,10 @@
       <c r="AA16" t="s">
         <v>729</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>142</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>664</v>
       </c>
     </row>
@@ -7029,6 +7475,9 @@
       <c r="H17" t="s">
         <v>345</v>
       </c>
+      <c r="I17" t="s">
+        <v>371</v>
+      </c>
       <c r="L17" t="s">
         <v>673</v>
       </c>
@@ -7041,10 +7490,10 @@
       <c r="AA17" t="s">
         <v>52</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>631</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>665</v>
       </c>
     </row>
@@ -7058,6 +7507,9 @@
       <c r="H18" t="s">
         <v>178</v>
       </c>
+      <c r="I18" t="s">
+        <v>838</v>
+      </c>
       <c r="L18" t="s">
         <v>168</v>
       </c>
@@ -7070,7 +7522,7 @@
       <c r="AA18" t="s">
         <v>44</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>643</v>
       </c>
     </row>
@@ -7079,7 +7531,7 @@
         <v>245</v>
       </c>
       <c r="F19" t="s">
-        <v>560</v>
+        <v>817</v>
       </c>
       <c r="H19" t="s">
         <v>179</v>
@@ -7093,7 +7545,7 @@
       <c r="AA19" t="s">
         <v>669</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>661</v>
       </c>
     </row>
@@ -7102,7 +7554,7 @@
         <v>182</v>
       </c>
       <c r="F20" t="s">
-        <v>751</v>
+        <v>818</v>
       </c>
       <c r="H20" t="s">
         <v>323</v>
@@ -7116,7 +7568,7 @@
       <c r="AA20" t="s">
         <v>53</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>662</v>
       </c>
     </row>
@@ -7125,7 +7577,7 @@
         <v>540</v>
       </c>
       <c r="F21" t="s">
-        <v>752</v>
+        <v>560</v>
       </c>
       <c r="H21" t="s">
         <v>324</v>
@@ -7139,7 +7591,7 @@
       <c r="AA21" t="s">
         <v>54</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AH21" t="s">
         <v>666</v>
       </c>
     </row>
@@ -7148,7 +7600,7 @@
         <v>557</v>
       </c>
       <c r="F22" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="H22" t="s">
         <v>325</v>
@@ -7159,7 +7611,7 @@
       <c r="AA22" t="s">
         <v>55</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>241</v>
       </c>
     </row>
@@ -7168,7 +7620,7 @@
         <v>558</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>752</v>
       </c>
       <c r="H23" t="s">
         <v>326</v>
@@ -7179,7 +7631,7 @@
       <c r="AA23" t="s">
         <v>56</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>702</v>
       </c>
     </row>
@@ -7188,7 +7640,7 @@
         <v>474</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>753</v>
       </c>
       <c r="H24" t="s">
         <v>317</v>
@@ -7199,7 +7651,7 @@
       <c r="AA24" t="s">
         <v>650</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>703</v>
       </c>
     </row>
@@ -7208,7 +7660,7 @@
         <v>536</v>
       </c>
       <c r="F25" t="s">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s">
         <v>306</v>
@@ -7219,7 +7671,7 @@
       <c r="AA25" t="s">
         <v>57</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>704</v>
       </c>
     </row>
@@ -7228,18 +7680,18 @@
         <v>740</v>
       </c>
       <c r="F26" t="s">
-        <v>754</v>
+        <v>38</v>
       </c>
       <c r="H26" t="s">
-        <v>156</v>
+        <v>819</v>
       </c>
       <c r="L26" t="s">
         <v>511</v>
       </c>
       <c r="AA26" t="s">
-        <v>709</v>
-      </c>
-      <c r="AF26" t="s">
+        <v>839</v>
+      </c>
+      <c r="AH26" t="s">
         <v>242</v>
       </c>
     </row>
@@ -7248,18 +7700,18 @@
         <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>705</v>
+        <v>276</v>
       </c>
       <c r="H27" t="s">
-        <v>309</v>
+        <v>820</v>
       </c>
       <c r="L27" t="s">
         <v>756</v>
       </c>
       <c r="AA27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF27" t="s">
+        <v>709</v>
+      </c>
+      <c r="AH27" t="s">
         <v>243</v>
       </c>
     </row>
@@ -7268,16 +7720,16 @@
         <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>754</v>
       </c>
       <c r="H28" t="s">
-        <v>293</v>
+        <v>156</v>
       </c>
       <c r="L28" t="s">
         <v>690</v>
       </c>
       <c r="AA28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
@@ -7285,898 +7737,959 @@
         <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>357</v>
+        <v>705</v>
       </c>
       <c r="H29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L29" t="s">
         <v>151</v>
       </c>
       <c r="AA29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>815</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H30" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="L30" t="s">
         <v>585</v>
       </c>
       <c r="AA30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>559</v>
+        <v>816</v>
       </c>
       <c r="F31" t="s">
-        <v>592</v>
+        <v>357</v>
       </c>
       <c r="H31" t="s">
-        <v>217</v>
+        <v>310</v>
       </c>
       <c r="L31" t="s">
         <v>152</v>
       </c>
       <c r="AA31" t="s">
-        <v>373</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>233</v>
+        <v>131</v>
       </c>
       <c r="F32" t="s">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="L32" t="s">
         <v>153</v>
       </c>
       <c r="AA32" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>559</v>
+      </c>
+      <c r="F33" t="s">
+        <v>592</v>
+      </c>
+      <c r="H33" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33">
-      <c r="F33" t="s">
-        <v>231</v>
-      </c>
-      <c r="H33" t="s">
-        <v>312</v>
-      </c>
-      <c r="AA33" t="s">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" t="s">
+        <v>230</v>
+      </c>
+      <c r="H34" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA34" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="s">
-        <v>636</v>
-      </c>
-      <c r="H34" t="s">
-        <v>675</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>637</v>
+        <v>231</v>
       </c>
       <c r="H35" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="AA35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>561</v>
+        <v>636</v>
       </c>
       <c r="H36" t="s">
-        <v>376</v>
+        <v>675</v>
       </c>
       <c r="AA36" t="s">
-        <v>710</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>158</v>
+        <v>637</v>
       </c>
       <c r="H37" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="AA37" t="s">
-        <v>66</v>
+        <v>710</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>41</v>
+        <v>561</v>
       </c>
       <c r="H38" t="s">
-        <v>288</v>
+        <v>376</v>
       </c>
       <c r="AA38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="H39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA39" t="s">
-        <v>208</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AA40" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="H41" t="s">
-        <v>157</v>
+        <v>336</v>
       </c>
       <c r="AA41" t="s">
-        <v>389</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H42" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="AA42" t="s">
-        <v>574</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="H43" t="s">
-        <v>706</v>
+        <v>821</v>
       </c>
       <c r="AA43" t="s">
-        <v>719</v>
+        <v>574</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H44" t="s">
-        <v>316</v>
+        <v>157</v>
       </c>
       <c r="AA44" t="s">
-        <v>512</v>
+        <v>719</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="s">
+        <v>154</v>
+      </c>
+      <c r="H46" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="s">
         <v>755</v>
       </c>
-      <c r="H45" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="H46" t="s">
-        <v>328</v>
-      </c>
-      <c r="AA46" t="s">
+      <c r="H47" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA47" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="H47" t="s">
-        <v>394</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
-        <v>393</v>
+        <v>327</v>
       </c>
       <c r="AA48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
-        <v>209</v>
+        <v>328</v>
       </c>
       <c r="AA49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
-        <v>329</v>
+        <v>394</v>
       </c>
       <c r="AA50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AA51" t="s">
-        <v>748</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
-        <v>485</v>
+        <v>209</v>
       </c>
       <c r="AA52" t="s">
-        <v>218</v>
+        <v>748</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA53" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
-        <v>473</v>
+        <v>822</v>
       </c>
       <c r="AA54" t="s">
-        <v>698</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
-        <v>377</v>
+        <v>823</v>
       </c>
       <c r="AA55" t="s">
-        <v>76</v>
+        <v>698</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
-        <v>295</v>
+        <v>824</v>
       </c>
       <c r="AA56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
-        <v>319</v>
+        <v>825</v>
       </c>
       <c r="AA57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
-        <v>320</v>
+        <v>390</v>
       </c>
       <c r="AA58" t="s">
-        <v>651</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
-        <v>707</v>
+        <v>485</v>
       </c>
       <c r="AA59" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="AA60" t="s">
-        <v>79</v>
+        <v>633</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="AA61" t="s">
-        <v>435</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="AA62" t="s">
-        <v>627</v>
+        <v>435</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
-        <v>388</v>
+        <v>319</v>
       </c>
       <c r="AA63" t="s">
-        <v>80</v>
+        <v>627</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="AA64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
-        <v>338</v>
+        <v>707</v>
       </c>
       <c r="AA65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
-        <v>486</v>
+        <v>321</v>
       </c>
       <c r="AA66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
-        <v>487</v>
+        <v>826</v>
       </c>
       <c r="AA67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
-        <v>396</v>
+        <v>827</v>
       </c>
       <c r="AA68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
-        <v>341</v>
+        <v>828</v>
       </c>
       <c r="AA69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="AA70" t="s">
-        <v>583</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
-        <v>694</v>
+        <v>829</v>
       </c>
       <c r="AA71" t="s">
-        <v>641</v>
+        <v>583</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
-        <v>342</v>
+        <v>830</v>
       </c>
       <c r="AA72" t="s">
-        <v>219</v>
+        <v>641</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
-        <v>555</v>
+        <v>388</v>
       </c>
       <c r="AA73" t="s">
-        <v>508</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="AA74" t="s">
-        <v>587</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
-        <v>556</v>
+        <v>338</v>
       </c>
       <c r="AA75" t="s">
-        <v>87</v>
+        <v>587</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
-        <v>289</v>
+        <v>486</v>
       </c>
       <c r="AA76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
-        <v>676</v>
+        <v>487</v>
       </c>
       <c r="AA77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AA78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="AA79" t="s">
-        <v>795</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="AA80" t="s">
-        <v>195</v>
+        <v>795</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
-        <v>318</v>
+        <v>694</v>
       </c>
       <c r="AA81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
-        <v>562</v>
+        <v>342</v>
       </c>
       <c r="AA82" t="s">
-        <v>597</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
-        <v>378</v>
+        <v>555</v>
       </c>
       <c r="AA83" t="s">
-        <v>635</v>
+        <v>597</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
-        <v>297</v>
+        <v>831</v>
       </c>
       <c r="AA84" t="s">
-        <v>91</v>
+        <v>635</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
-        <v>308</v>
+        <v>832</v>
       </c>
       <c r="AA85" t="s">
-        <v>92</v>
+        <v>840</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="AA86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
-        <v>303</v>
+        <v>676</v>
       </c>
       <c r="AA87" t="s">
-        <v>663</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
-        <v>695</v>
+        <v>395</v>
       </c>
       <c r="AA88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="AA89" t="s">
-        <v>95</v>
+        <v>663</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
-        <v>315</v>
+        <v>833</v>
       </c>
       <c r="AA90" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
-        <v>299</v>
+        <v>834</v>
       </c>
       <c r="AA91" t="s">
-        <v>652</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="AA92" t="s">
-        <v>727</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
-        <v>333</v>
+        <v>562</v>
       </c>
       <c r="AA93" t="s">
-        <v>198</v>
+        <v>652</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="AA94" t="s">
-        <v>596</v>
+        <v>727</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="AA95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
-        <v>391</v>
+        <v>308</v>
       </c>
       <c r="AA96" t="s">
-        <v>200</v>
+        <v>596</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="AA97" t="s">
-        <v>713</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" t="s">
+        <v>695</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="H100" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="H101" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="H102" t="s">
+        <v>835</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="H103" t="s">
+        <v>836</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="H104" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="H105" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="H106" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="H107" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="H108" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="H109" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="H110" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="H111" t="s">
         <v>305</v>
       </c>
-      <c r="AA98" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="AA99" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="AA100" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="AA101" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="AA102" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="AA103" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="AA104" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="AA105" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="AA106" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="AA107" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="AA108" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="AA109" t="s">
+      <c r="AA111" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="AA110" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="AA111" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>674</v>
+        <v>730</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>796</v>
+        <v>206</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>797</v>
+        <v>674</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>677</v>
+        <v>796</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>97</v>
+        <v>797</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>502</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>98</v>
+        <v>678</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>99</v>
+        <v>502</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>731</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>101</v>
+        <v>731</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>732</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>103</v>
+        <v>732</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>733</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>109</v>
+        <v>733</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>749</v>
+        <v>109</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>711</v>
+        <v>749</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>113</v>
+        <v>711</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>798</v>
+        <v>114</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
-        <v>734</v>
+        <v>27</v>
       </c>
     </row>
     <row r="145">
       <c r="AA145" t="s">
-        <v>116</v>
+        <v>798</v>
       </c>
     </row>
     <row r="146">
       <c r="AA146" t="s">
-        <v>117</v>
+        <v>734</v>
       </c>
     </row>
     <row r="147">
       <c r="AA147" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="148">
       <c r="AA148" t="s">
-        <v>799</v>
+        <v>117</v>
       </c>
     </row>
     <row r="149">
       <c r="AA149" t="s">
-        <v>800</v>
+        <v>118</v>
       </c>
     </row>
     <row r="150">
       <c r="AA150" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="151">
       <c r="AA151" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AA152" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="AA153" t="s">
         <v>802</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part2.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="27260" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="27260"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="crypto" sheetId="11" r:id="rId2"/>
-    <sheet name="macro-test" sheetId="13" r:id="rId3"/>
-    <sheet name="repeat-test" sheetId="14" r:id="rId4"/>
-    <sheet name="expression-test" sheetId="15" r:id="rId5"/>
-    <sheet name="multi-scenario2" sheetId="17" r:id="rId6"/>
-    <sheet name="flow_controls" sheetId="12" r:id="rId7"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="crypto" r:id="rId2" sheetId="11"/>
+    <sheet name="macro-test" r:id="rId3" sheetId="13"/>
+    <sheet name="repeat-test" r:id="rId4" sheetId="14"/>
+    <sheet name="expression-test" r:id="rId5" sheetId="15"/>
+    <sheet name="multi-scenario2" r:id="rId6" sheetId="17"/>
+    <sheet name="flow_controls" r:id="rId7" sheetId="12"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -21,49 +21,52 @@
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="base">'#system'!$F$2:$F$47</definedName>
-    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
+    <definedName name="csv">'#system'!$H$2:$H$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
-    <definedName name="external">'#system'!$J$2:$J$7</definedName>
-    <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$32</definedName>
-    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
-    <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
-    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="desktop">'#system'!$I$2:$I$113</definedName>
+    <definedName name="excel">'#system'!$J$2:$J$18</definedName>
+    <definedName name="external">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$L$2:$L$8</definedName>
+    <definedName name="io">'#system'!$M$2:$M$33</definedName>
+    <definedName name="jms">'#system'!$O$2:$O$4</definedName>
+    <definedName name="json">'#system'!$P$2:$P$19</definedName>
+    <definedName name="localdb">'#system'!$Q$2:$Q$13</definedName>
+    <definedName name="macro">'#system'!$R$2:$R$4</definedName>
+    <definedName name="mail">'#system'!$S$2:$S$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
-    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
-    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
-    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
-    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
-    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$34</definedName>
+    <definedName name="number">'#system'!$U$2:$U$16</definedName>
+    <definedName name="pdf">'#system'!$V$2:$V$21</definedName>
+    <definedName name="rdbms">'#system'!$W$2:$W$9</definedName>
+    <definedName name="redis">'#system'!$X$2:$X$10</definedName>
+    <definedName name="sms">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="sound">'#system'!$Z$2:$Z$5</definedName>
+    <definedName name="ssh">'#system'!$AA$2:$AA$9</definedName>
+    <definedName name="step">'#system'!$AB$2:$AB$4</definedName>
+    <definedName name="step.inTime">'#system'!$AC$2:$AC$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$38</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
-    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
-    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
-    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
-    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
+    <definedName name="tn.5250">'#system'!$AD$2:$AD$44</definedName>
+    <definedName name="web">'#system'!$AE$2:$AE$160</definedName>
+    <definedName name="webalert">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="webcookie">'#system'!$AG$2:$AG$10</definedName>
+    <definedName name="ws">'#system'!$AJ$2:$AJ$20</definedName>
+    <definedName name="ws.async">'#system'!$AK$2:$AK$8</definedName>
+    <definedName name="xml">'#system'!$AL$2:$AL$27</definedName>
+    <definedName name="webmail">'#system'!$AH$2:$AH$6</definedName>
+    <definedName name="word">'#system'!$AI$2:$AI$9</definedName>
+    <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
+    <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
+    <definedName name="mobile">'#system'!$T$2:$T$51</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="928">
   <si>
     <t>target</t>
   </si>
@@ -2518,18 +2521,393 @@
   <si>
     <t>should have never got here</t>
   </si>
+  <si>
+    <t>browserstack</t>
+  </si>
+  <si>
+    <t>javaui</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>deleteApp(profile,appId,resultVar)</t>
+  </si>
+  <si>
+    <t>listBrowsers(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>listDevices(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>saveUploadApps(profile,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>updateSessionStatus(profile,status,reason,resultVar)</t>
+  </si>
+  <si>
+    <t>uploadApp(profile,app,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>focusFirstTableRow()</t>
+  </si>
+  <si>
+    <t>focusLastTableRow()</t>
+  </si>
+  <si>
+    <t>assertFileContent(file,match,asLines)</t>
+  </si>
+  <si>
+    <t>assertEditable(name)</t>
+  </si>
+  <si>
+    <t>assertPresence(name)</t>
+  </si>
+  <si>
+    <t>assertText(name,text)</t>
+  </si>
+  <si>
+    <t>clickMenu(menus)</t>
+  </si>
+  <si>
+    <t>startApp(profile)</t>
+  </si>
+  <si>
+    <t>startLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>startLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>stopApp(profile)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>typeText(name,text)</t>
+  </si>
+  <si>
+    <t>waitForWindowTitle(title)</t>
+  </si>
+  <si>
+    <t>sanitize(var,json)</t>
+  </si>
+  <si>
+    <t>assertAlertPresent(text)</t>
+  </si>
+  <si>
+    <t>assertAttribute(locator,attribute,text)</t>
+  </si>
+  <si>
+    <t>assertCount(locator,count)</t>
+  </si>
+  <si>
+    <t>assertElementNotVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertElementVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertLocked()</t>
+  </si>
+  <si>
+    <t>assertTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>back()</t>
+  </si>
+  <si>
+    <t>clearAlert(option)</t>
+  </si>
+  <si>
+    <t>clearNotification()</t>
+  </si>
+  <si>
+    <t>clickByDisplayText(text)</t>
+  </si>
+  <si>
+    <t>clickUntilNotFound(locator,waitMs,max)</t>
+  </si>
+  <si>
+    <t>closeApp()</t>
+  </si>
+  <si>
+    <t>copyToLocal(file,folder)</t>
+  </si>
+  <si>
+    <t>doubleClick(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>forward()</t>
+  </si>
+  <si>
+    <t>hideKeyboard()</t>
+  </si>
+  <si>
+    <t>home()</t>
+  </si>
+  <si>
+    <t>launchApp(app)</t>
+  </si>
+  <si>
+    <t>lock()</t>
+  </si>
+  <si>
+    <t>longClick(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>orientation(mode)</t>
+  </si>
+  <si>
+    <t>postScreenshot$nexial_core(target,locator)</t>
+  </si>
+  <si>
+    <t>recentApps()</t>
+  </si>
+  <si>
+    <t>saveAlertText(var)</t>
+  </si>
+  <si>
+    <t>saveAttributes(var,locator,attribute)</t>
+  </si>
+  <si>
+    <t>saveLockStatus(var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>scroll(locator,direction)</t>
+  </si>
+  <si>
+    <t>scrollUntilFound(scrollTarget,direction,searchFor,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>select(locator,item)</t>
+  </si>
+  <si>
+    <t>selectLocalFile(device,folder,filename)</t>
+  </si>
+  <si>
+    <t>sendSms(phone,message)</t>
+  </si>
+  <si>
+    <t>shake()</t>
+  </si>
+  <si>
+    <t>shutdown(profile)</t>
+  </si>
+  <si>
+    <t>slide(start,end)</t>
+  </si>
+  <si>
+    <t>type(locator,text)</t>
+  </si>
+  <si>
+    <t>unlock()</t>
+  </si>
+  <si>
+    <t>use(profile)</t>
+  </si>
+  <si>
+    <t>zoom(start1,end1,start2,end2)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>compare$nexial_core(expects,actual,expectMatch,messagePrefix)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedColumns(matches,keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>waitUntilMessagePresent(message,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilProcessed(maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTextPresent(text,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTitlePresent(title,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementsEnabled(prefix)</t>
+  </si>
+  <si>
+    <t>assertElementsVisible(prefix)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsAbsent(locator,options)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsPresent(locator,options)</t>
+  </si>
+  <si>
+    <t>clickIfPresent(locator)</t>
+  </si>
+  <si>
+    <t>saveCssValue(var,locator,property)</t>
+  </si>
+  <si>
+    <t>selectDropdown(locator,optLocator,optText)</t>
+  </si>
+  <si>
+    <t>toast(message,duration,darkMode)</t>
+  </si>
+  <si>
+    <t>waitForElementTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>waitWhileElementNotPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>attachment(profile,id,attachment,saveTo)</t>
+  </si>
+  <si>
+    <t>attachments(profile,id,saveDir)</t>
+  </si>
+  <si>
+    <t>clearHeaders(headers)</t>
+  </si>
+  <si>
+    <t>graphql(url,body,var)</t>
+  </si>
+  <si>
+    <t>oauthProfile(var,profile)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="49">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2760,8 +3138,115 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="62">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2982,6 +3467,142 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -3241,424 +3862,475 @@
     </border>
   </borders>
   <cellStyleXfs count="48">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="37" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="36" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="20" fillId="0" fontId="29" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="35" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="31" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="19" fillId="0" fontId="28" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="18" fillId="15" fontId="27" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="44">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="16" fillId="16" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="14" fillId="9" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="14" fillId="15" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="15" fillId="0" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="13" fillId="0" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="176">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="30" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="13" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="177">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="17" fillId="17" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="83">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="2" numFmtId="49" xfId="47">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="5" fontId="2" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="6" fillId="3" fontId="6" numFmtId="49" xfId="47">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="7" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="3" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="9" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="6" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="6" fontId="11" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="6" fontId="11" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="48">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Heading 2" xfId="42" builtinId="17"/>
-    <cellStyle name="Comma" xfId="43" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="44" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="45" builtinId="40"/>
-    <cellStyle name="Percent" xfId="46" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="1"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="2"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="3"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="4"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="5"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="6"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="7"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="8"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="9"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="10"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="11"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="12"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="13"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="16"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="17"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="18"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="19"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="20"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="21"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="22"/>
+    <cellStyle builtinId="27" name="Bad" xfId="23"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="24"/>
+    <cellStyle builtinId="25" name="Total" xfId="25"/>
+    <cellStyle builtinId="21" name="Output" xfId="26"/>
+    <cellStyle builtinId="4" name="Currency" xfId="27"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="28"/>
+    <cellStyle builtinId="10" name="Note" xfId="29"/>
+    <cellStyle builtinId="20" name="Input" xfId="30"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="31"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="32"/>
+    <cellStyle builtinId="26" name="Good" xfId="33"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="34"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="35"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="36"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="37"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="38"/>
+    <cellStyle builtinId="15" name="Title" xfId="39"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="40"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="41"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="42"/>
+    <cellStyle builtinId="3" name="Comma" xfId="43"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="44"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="45"/>
+    <cellStyle builtinId="5" name="Percent" xfId="46"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="47"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -3692,7 +4364,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="00F8F7F9"/>
@@ -3714,7 +4386,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
@@ -3732,7 +4404,7 @@
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Drop Down 1" hidden="1">
+            <xdr:cNvPr hidden="1" id="1025" name="Drop Down 1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
@@ -3764,10 +4436,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3931,21 +4603,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3962,7 +4634,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -4015,24 +4687,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:AH153"/>
+  <dimension ref="A1:AM160"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1" collapsed="1"/>
-    <col min="4" max="13" width="8.5" customWidth="1" collapsed="1"/>
-    <col min="14" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="8.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.375" collapsed="true"/>
+    <col min="4" max="13" customWidth="true" width="8.5" collapsed="true"/>
+    <col min="14" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4052,91 +4724,103 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>803</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>804</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>805</v>
+      </c>
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>806</v>
+      </c>
+      <c r="AE1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4156,91 +4840,103 @@
         <v>38</v>
       </c>
       <c r="G2" t="s">
+        <v>807</v>
+      </c>
+      <c r="H2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>41</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>42</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>43</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>44</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2" t="s">
         <v>45</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>46</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>47</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>49</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>829</v>
+      </c>
+      <c r="U2" t="s">
         <v>50</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>51</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>52</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>53</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>54</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
+        <v>869</v>
+      </c>
+      <c r="AE2" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>60</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>61</v>
       </c>
-      <c r="AD2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
+        <v>923</v>
+      </c>
+      <c r="AI2" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>64</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>65</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4257,88 +4953,100 @@
         <v>70</v>
       </c>
       <c r="G3" t="s">
+        <v>808</v>
+      </c>
+      <c r="H3" t="s">
         <v>71</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>72</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>73</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>74</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>75</v>
       </c>
-      <c r="L3" t="s">
-        <v>76</v>
-      </c>
       <c r="M3" t="s">
+        <v>815</v>
+      </c>
+      <c r="N3" t="s">
+        <v>816</v>
+      </c>
+      <c r="O3" t="s">
         <v>77</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>78</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>79</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>80</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>81</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
+        <v>830</v>
+      </c>
+      <c r="U3" t="s">
         <v>82</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>83</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>84</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>85</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>86</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>87</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>88</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>89</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
+        <v>870</v>
+      </c>
+      <c r="AE3" t="s">
         <v>90</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
         <v>91</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>92</v>
       </c>
-      <c r="AD3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AI3" t="s">
         <v>94</v>
       </c>
-      <c r="AF3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
+        <v>925</v>
+      </c>
+      <c r="AK3" t="s">
         <v>96</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AL3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4352,88 +5060,100 @@
         <v>100</v>
       </c>
       <c r="G4" t="s">
+        <v>809</v>
+      </c>
+      <c r="H4" t="s">
         <v>101</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>102</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>103</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>104</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>105</v>
       </c>
-      <c r="L4" t="s">
-        <v>106</v>
-      </c>
       <c r="M4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" t="s">
+        <v>177</v>
+      </c>
+      <c r="O4" t="s">
         <v>107</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>108</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>109</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>110</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>111</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
+        <v>831</v>
+      </c>
+      <c r="U4" t="s">
         <v>112</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>113</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>114</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>115</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>116</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>117</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>118</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>119</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
+        <v>871</v>
+      </c>
+      <c r="AE4" t="s">
         <v>120</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>121</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
         <v>122</v>
       </c>
-      <c r="AD4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI4" t="s">
         <v>124</v>
       </c>
-      <c r="AF4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK4" t="s">
         <v>125</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AL4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4447,73 +5167,88 @@
         <v>129</v>
       </c>
       <c r="G5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H5" t="s">
         <v>130</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>131</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>132</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>133</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>134</v>
       </c>
-      <c r="L5" t="s">
-        <v>135</v>
+      <c r="M5" t="s">
+        <v>106</v>
       </c>
       <c r="N5" t="s">
+        <v>817</v>
+      </c>
+      <c r="P5" t="s">
         <v>136</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>137</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>138</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
+        <v>292</v>
+      </c>
+      <c r="U5" t="s">
         <v>139</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>140</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>141</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>142</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>143</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>144</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
+        <v>872</v>
+      </c>
+      <c r="AE5" t="s">
         <v>145</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>146</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>147</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI5" t="s">
         <v>148</v>
       </c>
-      <c r="AF5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AJ5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK5" t="s">
         <v>150</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AL5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4527,69 +5262,84 @@
         <v>154</v>
       </c>
       <c r="G6" t="s">
+        <v>811</v>
+      </c>
+      <c r="H6" t="s">
         <v>155</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>156</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>157</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>158</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>159</v>
       </c>
-      <c r="L6" t="s">
-        <v>160</v>
+      <c r="M6" t="s">
+        <v>135</v>
       </c>
       <c r="N6" t="s">
+        <v>818</v>
+      </c>
+      <c r="P6" t="s">
         <v>161</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>162</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
+        <v>302</v>
+      </c>
+      <c r="U6" t="s">
         <v>163</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>164</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>165</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>166</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>167</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
+        <v>873</v>
+      </c>
+      <c r="AE6" t="s">
         <v>168</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>169</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>170</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI6" t="s">
         <v>171</v>
       </c>
-      <c r="AF6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK6" t="s">
         <v>173</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AL6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>803</v>
       </c>
       <c r="B7" t="s">
         <v>175</v>
@@ -4597,67 +5347,79 @@
       <c r="F7" t="s">
         <v>176</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>812</v>
+      </c>
+      <c r="I7" t="s">
         <v>177</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>178</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>179</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>180</v>
       </c>
-      <c r="L7" t="s">
-        <v>181</v>
+      <c r="M7" t="s">
+        <v>160</v>
       </c>
       <c r="N7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P7" t="s">
         <v>44</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>182</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
+        <v>311</v>
+      </c>
+      <c r="U7" t="s">
         <v>183</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>184</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>185</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>186</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>187</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
+        <v>874</v>
+      </c>
+      <c r="AE7" t="s">
         <v>188</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
         <v>189</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>190</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AI7" t="s">
         <v>191</v>
       </c>
-      <c r="AF7" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AJ7" t="s">
+        <v>926</v>
+      </c>
+      <c r="AK7" t="s">
         <v>193</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AL7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>195</v>
@@ -4665,64 +5427,73 @@
       <c r="F8" t="s">
         <v>196</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>197</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>198</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>199</v>
       </c>
-      <c r="L8" t="s">
-        <v>39</v>
+      <c r="M8" t="s">
+        <v>181</v>
       </c>
       <c r="N8" t="s">
+        <v>819</v>
+      </c>
+      <c r="P8" t="s">
         <v>200</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>201</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
+        <v>832</v>
+      </c>
+      <c r="U8" t="s">
         <v>202</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>203</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>204</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>205</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>206</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
+        <v>875</v>
+      </c>
+      <c r="AE8" t="s">
         <v>207</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" t="s">
         <v>208</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AG8" t="s">
         <v>209</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AI8" t="s">
         <v>210</v>
       </c>
-      <c r="AF8" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AJ8" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK8" t="s">
         <v>212</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AL8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>214</v>
@@ -4730,1579 +5501,1908 @@
       <c r="F9" t="s">
         <v>215</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>216</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>217</v>
       </c>
-      <c r="L9" t="s">
-        <v>218</v>
+      <c r="M9" t="s">
+        <v>39</v>
       </c>
       <c r="N9" t="s">
+        <v>820</v>
+      </c>
+      <c r="P9" t="s">
         <v>219</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>220</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
+        <v>320</v>
+      </c>
+      <c r="U9" t="s">
         <v>221</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>222</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>223</v>
       </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>224</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>225</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
+        <v>876</v>
+      </c>
+      <c r="AE9" t="s">
         <v>226</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>227</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AI9" t="s">
         <v>228</v>
       </c>
-      <c r="AF9" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
         <v>44</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>231</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>232</v>
       </c>
-      <c r="L10" t="s">
-        <v>233</v>
+      <c r="M10" t="s">
+        <v>218</v>
       </c>
       <c r="N10" t="s">
+        <v>821</v>
+      </c>
+      <c r="P10" t="s">
         <v>234</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>235</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
+        <v>833</v>
+      </c>
+      <c r="U10" t="s">
         <v>236</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>237</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>238</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
+        <v>877</v>
+      </c>
+      <c r="AE10" t="s">
         <v>239</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AG10" t="s">
         <v>240</v>
       </c>
-      <c r="AF10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AJ10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL10" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>243</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>244</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>245</v>
       </c>
-      <c r="L11" t="s">
-        <v>246</v>
+      <c r="M11" t="s">
+        <v>233</v>
       </c>
       <c r="N11" t="s">
+        <v>822</v>
+      </c>
+      <c r="P11" t="s">
         <v>247</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>248</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
+        <v>326</v>
+      </c>
+      <c r="U11" t="s">
         <v>249</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>250</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
+        <v>878</v>
+      </c>
+      <c r="AE11" t="s">
         <v>251</v>
       </c>
-      <c r="AF11" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL11" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>254</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>255</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>256</v>
       </c>
-      <c r="L12" t="s">
-        <v>257</v>
+      <c r="M12" t="s">
+        <v>246</v>
       </c>
       <c r="N12" t="s">
+        <v>823</v>
+      </c>
+      <c r="P12" t="s">
         <v>258</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>259</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
+        <v>834</v>
+      </c>
+      <c r="U12" t="s">
         <v>260</v>
       </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>261</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
+        <v>879</v>
+      </c>
+      <c r="AE12" t="s">
         <v>262</v>
       </c>
-      <c r="AF12" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL12" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>265</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>266</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>267</v>
       </c>
-      <c r="L13" t="s">
-        <v>268</v>
+      <c r="M13" t="s">
+        <v>257</v>
       </c>
       <c r="N13" t="s">
+        <v>824</v>
+      </c>
+      <c r="P13" t="s">
         <v>269</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>270</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>835</v>
+      </c>
+      <c r="U13" t="s">
         <v>271</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>272</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
+        <v>880</v>
+      </c>
+      <c r="AE13" t="s">
         <v>273</v>
       </c>
-      <c r="AF13" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="AJ13" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL13" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>804</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>276</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>277</v>
       </c>
-      <c r="L14" t="s">
-        <v>278</v>
+      <c r="M14" t="s">
+        <v>268</v>
       </c>
       <c r="N14" t="s">
+        <v>825</v>
+      </c>
+      <c r="P14" t="s">
         <v>279</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
+        <v>836</v>
+      </c>
+      <c r="U14" t="s">
         <v>280</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>281</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
+        <v>881</v>
+      </c>
+      <c r="AE14" t="s">
         <v>282</v>
       </c>
-      <c r="AF14" t="s">
-        <v>283</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AJ14" t="s">
+        <v>927</v>
+      </c>
+      <c r="AL14" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
         <v>285</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>286</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>287</v>
       </c>
-      <c r="L15" t="s">
-        <v>288</v>
+      <c r="M15" t="s">
+        <v>278</v>
       </c>
       <c r="N15" t="s">
-        <v>289</v>
-      </c>
-      <c r="R15" t="s">
+        <v>826</v>
+      </c>
+      <c r="P15" t="s">
+        <v>828</v>
+      </c>
+      <c r="T15" t="s">
+        <v>837</v>
+      </c>
+      <c r="U15" t="s">
         <v>290</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>291</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
+        <v>882</v>
+      </c>
+      <c r="AE15" t="s">
         <v>292</v>
       </c>
-      <c r="AF15" t="s">
-        <v>293</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AJ15" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL15" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
         <v>295</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>296</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>297</v>
       </c>
-      <c r="L16" t="s">
-        <v>298</v>
+      <c r="M16" t="s">
+        <v>288</v>
       </c>
       <c r="N16" t="s">
-        <v>299</v>
-      </c>
-      <c r="R16" t="s">
+        <v>827</v>
+      </c>
+      <c r="P16" t="s">
+        <v>289</v>
+      </c>
+      <c r="T16" t="s">
+        <v>838</v>
+      </c>
+      <c r="U16" t="s">
         <v>300</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>301</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
+        <v>883</v>
+      </c>
+      <c r="AE16" t="s">
         <v>302</v>
       </c>
-      <c r="AF16" t="s">
-        <v>303</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AJ16" t="s">
+        <v>274</v>
+      </c>
+      <c r="AL16" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
         <v>305</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>306</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>307</v>
       </c>
-      <c r="L17" t="s">
-        <v>308</v>
-      </c>
-      <c r="N17" t="s">
-        <v>309</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="M17" t="s">
+        <v>298</v>
+      </c>
+      <c r="P17" t="s">
+        <v>299</v>
+      </c>
+      <c r="T17" t="s">
+        <v>448</v>
+      </c>
+      <c r="V17" t="s">
         <v>310</v>
       </c>
-      <c r="AA17" t="s">
-        <v>311</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>312</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AD17" t="s">
+        <v>884</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>912</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL17" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
         <v>314</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>315</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>316</v>
       </c>
-      <c r="L18" t="s">
-        <v>317</v>
-      </c>
-      <c r="N18" t="s">
-        <v>318</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="M18" t="s">
+        <v>308</v>
+      </c>
+      <c r="P18" t="s">
+        <v>309</v>
+      </c>
+      <c r="T18" t="s">
+        <v>839</v>
+      </c>
+      <c r="V18" t="s">
         <v>319</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
+        <v>885</v>
+      </c>
+      <c r="AE18" t="s">
         <v>320</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AJ18" t="s">
+        <v>293</v>
+      </c>
+      <c r="AL18" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
         <v>322</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>323</v>
       </c>
-      <c r="L19" t="s">
-        <v>324</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="M19" t="s">
+        <v>317</v>
+      </c>
+      <c r="P19" t="s">
+        <v>318</v>
+      </c>
+      <c r="T19" t="s">
+        <v>840</v>
+      </c>
+      <c r="V19" t="s">
         <v>325</v>
       </c>
-      <c r="AA19" t="s">
-        <v>326</v>
-      </c>
-      <c r="AH19" t="s">
+      <c r="AD19" t="s">
+        <v>886</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>913</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>303</v>
+      </c>
+      <c r="AL19" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>805</v>
       </c>
       <c r="F20" t="s">
         <v>328</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>329</v>
       </c>
-      <c r="L20" t="s">
-        <v>330</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="M20" t="s">
+        <v>324</v>
+      </c>
+      <c r="T20" t="s">
+        <v>841</v>
+      </c>
+      <c r="V20" t="s">
         <v>331</v>
       </c>
-      <c r="AA20" t="s">
-        <v>332</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AD20" t="s">
+        <v>887</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>326</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>312</v>
+      </c>
+      <c r="AL20" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
         <v>334</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>335</v>
       </c>
-      <c r="L21" t="s">
-        <v>336</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="M21" t="s">
+        <v>330</v>
+      </c>
+      <c r="T21" t="s">
+        <v>842</v>
+      </c>
+      <c r="V21" t="s">
         <v>337</v>
       </c>
-      <c r="AA21" t="s">
-        <v>338</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AD21" t="s">
+        <v>888</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>914</v>
+      </c>
+      <c r="AL21" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
         <v>340</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>341</v>
       </c>
-      <c r="L22" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>343</v>
-      </c>
-      <c r="AH22" t="s">
+      <c r="M22" t="s">
+        <v>336</v>
+      </c>
+      <c r="T22" t="s">
+        <v>843</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>889</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>332</v>
+      </c>
+      <c r="AL22" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
         <v>345</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>346</v>
       </c>
-      <c r="L23" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>348</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="M23" t="s">
+        <v>342</v>
+      </c>
+      <c r="T23" t="s">
+        <v>844</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>890</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>338</v>
+      </c>
+      <c r="AL23" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
         <v>350</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>351</v>
       </c>
-      <c r="L24" t="s">
-        <v>352</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>353</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="M24" t="s">
+        <v>347</v>
+      </c>
+      <c r="T24" t="s">
+        <v>845</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>891</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>343</v>
+      </c>
+      <c r="AL24" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
         <v>355</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>356</v>
       </c>
-      <c r="L25" t="s">
-        <v>357</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>358</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="M25" t="s">
+        <v>352</v>
+      </c>
+      <c r="T25" t="s">
+        <v>846</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>892</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>348</v>
+      </c>
+      <c r="AL25" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
         <v>360</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>361</v>
       </c>
-      <c r="L26" t="s">
-        <v>362</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>363</v>
-      </c>
-      <c r="AH26" t="s">
+      <c r="M26" t="s">
+        <v>357</v>
+      </c>
+      <c r="T26" t="s">
+        <v>847</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>893</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>353</v>
+      </c>
+      <c r="AL26" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
         <v>365</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>366</v>
       </c>
-      <c r="L27" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>368</v>
-      </c>
-      <c r="AH27" t="s">
+      <c r="M27" t="s">
+        <v>362</v>
+      </c>
+      <c r="T27" t="s">
+        <v>848</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>894</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>358</v>
+      </c>
+      <c r="AL27" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
         <v>370</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>371</v>
       </c>
-      <c r="L28" t="s">
-        <v>372</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="M28" t="s">
+        <v>367</v>
+      </c>
+      <c r="T28" t="s">
+        <v>849</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>895</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
         <v>374</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>375</v>
       </c>
-      <c r="L29" t="s">
-        <v>376</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="M29" t="s">
+        <v>372</v>
+      </c>
+      <c r="T29" t="s">
+        <v>850</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>896</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>806</v>
       </c>
       <c r="F30" t="s">
         <v>378</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>379</v>
       </c>
-      <c r="L30" t="s">
-        <v>380</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="M30" t="s">
+        <v>376</v>
+      </c>
+      <c r="T30" t="s">
+        <v>851</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>897</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
         <v>382</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>383</v>
       </c>
-      <c r="L31" t="s">
-        <v>384</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="M31" t="s">
+        <v>380</v>
+      </c>
+      <c r="T31" t="s">
+        <v>852</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>898</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
         <v>386</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>387</v>
       </c>
-      <c r="L32" t="s">
-        <v>388</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="M32" t="s">
+        <v>384</v>
+      </c>
+      <c r="T32" t="s">
+        <v>853</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>899</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F33" t="s">
         <v>390</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>391</v>
       </c>
-      <c r="AA33" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="M33" t="s">
+        <v>388</v>
+      </c>
+      <c r="T33" t="s">
+        <v>854</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>900</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F34" t="s">
         <v>393</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>394</v>
       </c>
-      <c r="AA34" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="35" spans="6:27">
+      <c r="T34" t="s">
+        <v>530</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>901</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
       <c r="F35" t="s">
         <v>396</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>397</v>
       </c>
-      <c r="AA35" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="36" spans="6:27">
+      <c r="T35" t="s">
+        <v>855</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>902</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
       <c r="F36" t="s">
         <v>399</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>400</v>
       </c>
-      <c r="AA36" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="37" spans="6:27">
+      <c r="T36" t="s">
+        <v>556</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>903</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
       <c r="F37" t="s">
         <v>402</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>403</v>
       </c>
-      <c r="AA37" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="38" spans="6:27">
+      <c r="T37" t="s">
+        <v>558</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>904</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
       <c r="F38" t="s">
         <v>405</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>406</v>
       </c>
-      <c r="AA38" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="39" spans="6:27">
+      <c r="T38" t="s">
+        <v>856</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>905</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="F39" t="s">
         <v>408</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>409</v>
       </c>
-      <c r="AA39" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="40" spans="6:27">
+      <c r="T39" t="s">
+        <v>857</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>906</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="F40" t="s">
         <v>411</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>412</v>
       </c>
-      <c r="AA40" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="41" spans="6:27">
+      <c r="T40" t="s">
+        <v>858</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>907</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="F41" t="s">
         <v>414</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>415</v>
       </c>
-      <c r="AA41" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="42" spans="6:27">
+      <c r="T41" t="s">
+        <v>859</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>908</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="F42" t="s">
         <v>417</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>418</v>
       </c>
-      <c r="AA42" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="43" spans="6:27">
+      <c r="T42" t="s">
+        <v>860</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>909</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="F43" t="s">
         <v>420</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>421</v>
       </c>
-      <c r="AA43" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="44" spans="6:27">
+      <c r="T43" t="s">
+        <v>861</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>910</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="F44" t="s">
         <v>423</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>424</v>
       </c>
-      <c r="AA44" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="45" spans="6:27">
+      <c r="T44" t="s">
+        <v>862</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>911</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="F45" t="s">
         <v>426</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>427</v>
       </c>
-      <c r="AA45" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="46" spans="6:27">
+      <c r="T45" t="s">
+        <v>863</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="F46" t="s">
         <v>429</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>430</v>
       </c>
-      <c r="AA46" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="47" spans="6:27">
+      <c r="T46" t="s">
+        <v>864</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="F47" t="s">
         <v>432</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>433</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="T47" t="s">
+        <v>865</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="I48" t="s">
+        <v>435</v>
+      </c>
+      <c r="T48" t="s">
+        <v>866</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" t="s">
+        <v>437</v>
+      </c>
+      <c r="T49" t="s">
+        <v>867</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" t="s">
+        <v>439</v>
+      </c>
+      <c r="T50" t="s">
+        <v>596</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" t="s">
+        <v>441</v>
+      </c>
+      <c r="T51" t="s">
+        <v>868</v>
+      </c>
+      <c r="AE51" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="48" spans="8:27">
-      <c r="H48" t="s">
-        <v>435</v>
-      </c>
-      <c r="AA48" t="s">
+    <row r="52">
+      <c r="I52" t="s">
+        <v>443</v>
+      </c>
+      <c r="AE52" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="49" spans="8:27">
-      <c r="H49" t="s">
-        <v>437</v>
-      </c>
-      <c r="AA49" t="s">
+    <row r="53">
+      <c r="I53" t="s">
+        <v>445</v>
+      </c>
+      <c r="AE53" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="50" spans="8:27">
-      <c r="H50" t="s">
-        <v>439</v>
-      </c>
-      <c r="AA50" t="s">
+    <row r="54">
+      <c r="I54" t="s">
+        <v>447</v>
+      </c>
+      <c r="AE54" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="51" spans="8:27">
-      <c r="H51" t="s">
-        <v>441</v>
-      </c>
-      <c r="AA51" t="s">
+    <row r="55">
+      <c r="I55" t="s">
+        <v>449</v>
+      </c>
+      <c r="AE55" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="52" spans="8:27">
-      <c r="H52" t="s">
-        <v>443</v>
-      </c>
-      <c r="AA52" t="s">
+    <row r="56">
+      <c r="I56" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE56" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="53" spans="8:27">
-      <c r="H53" t="s">
-        <v>445</v>
-      </c>
-      <c r="AA53" t="s">
+    <row r="57">
+      <c r="I57" t="s">
+        <v>453</v>
+      </c>
+      <c r="AE57" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="54" spans="8:27">
-      <c r="H54" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA54" t="s">
+    <row r="58">
+      <c r="I58" t="s">
+        <v>455</v>
+      </c>
+      <c r="AE58" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="55" spans="8:27">
-      <c r="H55" t="s">
-        <v>449</v>
-      </c>
-      <c r="AA55" t="s">
+    <row r="59">
+      <c r="I59" t="s">
+        <v>457</v>
+      </c>
+      <c r="AE59" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="56" spans="8:27">
-      <c r="H56" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA56" t="s">
+    <row r="60">
+      <c r="I60" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE60" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="57" spans="8:27">
-      <c r="H57" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA57" t="s">
+    <row r="61">
+      <c r="I61" t="s">
+        <v>813</v>
+      </c>
+      <c r="AE61" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="58" spans="8:27">
-      <c r="H58" t="s">
-        <v>455</v>
-      </c>
-      <c r="AA58" t="s">
+    <row r="62">
+      <c r="I62" t="s">
+        <v>814</v>
+      </c>
+      <c r="AE62" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="59" spans="8:27">
-      <c r="H59" t="s">
-        <v>457</v>
-      </c>
-      <c r="AA59" t="s">
+    <row r="63">
+      <c r="I63" t="s">
+        <v>461</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="I64" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE64" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="60" spans="8:27">
-      <c r="H60" t="s">
-        <v>459</v>
-      </c>
-      <c r="AA60" t="s">
+    <row r="65">
+      <c r="I65" t="s">
+        <v>465</v>
+      </c>
+      <c r="AE65" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="61" spans="8:27">
-      <c r="H61" t="s">
-        <v>461</v>
-      </c>
-      <c r="AA61" t="s">
+    <row r="66">
+      <c r="I66" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE66" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="62" spans="8:27">
-      <c r="H62" t="s">
-        <v>463</v>
-      </c>
-      <c r="AA62" t="s">
+    <row r="67">
+      <c r="I67" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE67" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="63" spans="8:27">
-      <c r="H63" t="s">
-        <v>465</v>
-      </c>
-      <c r="AA63" t="s">
+    <row r="68">
+      <c r="I68" t="s">
+        <v>471</v>
+      </c>
+      <c r="AE68" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="64" spans="8:27">
-      <c r="H64" t="s">
-        <v>467</v>
-      </c>
-      <c r="AA64" t="s">
+    <row r="69">
+      <c r="I69" t="s">
+        <v>473</v>
+      </c>
+      <c r="AE69" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="65" spans="8:27">
-      <c r="H65" t="s">
-        <v>469</v>
-      </c>
-      <c r="AA65" t="s">
+    <row r="70">
+      <c r="I70" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE70" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="66" spans="8:27">
-      <c r="H66" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA66" t="s">
+    <row r="71">
+      <c r="I71" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE71" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="67" spans="8:27">
-      <c r="H67" t="s">
-        <v>473</v>
-      </c>
-      <c r="AA67" t="s">
+    <row r="72">
+      <c r="I72" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE72" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="68" spans="8:27">
-      <c r="H68" t="s">
-        <v>475</v>
-      </c>
-      <c r="AA68" t="s">
+    <row r="73">
+      <c r="I73" t="s">
+        <v>481</v>
+      </c>
+      <c r="AE73" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="69" spans="8:27">
-      <c r="H69" t="s">
-        <v>477</v>
-      </c>
-      <c r="AA69" t="s">
+    <row r="74">
+      <c r="I74" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE74" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="70" spans="8:27">
-      <c r="H70" t="s">
-        <v>479</v>
-      </c>
-      <c r="AA70" t="s">
+    <row r="75">
+      <c r="I75" t="s">
+        <v>485</v>
+      </c>
+      <c r="AE75" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="71" spans="8:27">
-      <c r="H71" t="s">
-        <v>481</v>
-      </c>
-      <c r="AA71" t="s">
+    <row r="76">
+      <c r="I76" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE76" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="72" spans="8:27">
-      <c r="H72" t="s">
-        <v>483</v>
-      </c>
-      <c r="AA72" t="s">
+    <row r="77">
+      <c r="I77" t="s">
+        <v>489</v>
+      </c>
+      <c r="AE77" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="73" spans="8:27">
-      <c r="H73" t="s">
-        <v>485</v>
-      </c>
-      <c r="AA73" t="s">
+    <row r="78">
+      <c r="I78" t="s">
+        <v>491</v>
+      </c>
+      <c r="AE78" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="74" spans="8:27">
-      <c r="H74" t="s">
-        <v>487</v>
-      </c>
-      <c r="AA74" t="s">
+    <row r="79">
+      <c r="I79" t="s">
+        <v>493</v>
+      </c>
+      <c r="AE79" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="75" spans="8:27">
-      <c r="H75" t="s">
-        <v>489</v>
-      </c>
-      <c r="AA75" t="s">
+    <row r="80">
+      <c r="I80" t="s">
+        <v>495</v>
+      </c>
+      <c r="AE80" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="76" spans="8:27">
-      <c r="H76" t="s">
-        <v>491</v>
-      </c>
-      <c r="AA76" t="s">
+    <row r="81">
+      <c r="I81" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE81" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="77" spans="8:27">
-      <c r="H77" t="s">
-        <v>493</v>
-      </c>
-      <c r="AA77" t="s">
+    <row r="82">
+      <c r="I82" t="s">
+        <v>499</v>
+      </c>
+      <c r="AE82" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="78" spans="8:27">
-      <c r="H78" t="s">
-        <v>495</v>
-      </c>
-      <c r="AA78" t="s">
+    <row r="83">
+      <c r="I83" t="s">
+        <v>501</v>
+      </c>
+      <c r="AE83" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="79" spans="8:27">
-      <c r="H79" t="s">
-        <v>497</v>
-      </c>
-      <c r="AA79" t="s">
+    <row r="84">
+      <c r="I84" t="s">
+        <v>503</v>
+      </c>
+      <c r="AE84" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="80" spans="8:27">
-      <c r="H80" t="s">
-        <v>499</v>
-      </c>
-      <c r="AA80" t="s">
+    <row r="85">
+      <c r="I85" t="s">
+        <v>505</v>
+      </c>
+      <c r="AE85" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="81" spans="8:27">
-      <c r="H81" t="s">
-        <v>501</v>
-      </c>
-      <c r="AA81" t="s">
+    <row r="86">
+      <c r="I86" t="s">
+        <v>507</v>
+      </c>
+      <c r="AE86" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="82" spans="8:27">
-      <c r="H82" t="s">
-        <v>503</v>
-      </c>
-      <c r="AA82" t="s">
+    <row r="87">
+      <c r="I87" t="s">
+        <v>509</v>
+      </c>
+      <c r="AE87" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="83" spans="8:27">
-      <c r="H83" t="s">
-        <v>505</v>
-      </c>
-      <c r="AA83" t="s">
+    <row r="88">
+      <c r="I88" t="s">
+        <v>511</v>
+      </c>
+      <c r="AE88" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="84" spans="8:27">
-      <c r="H84" t="s">
-        <v>507</v>
-      </c>
-      <c r="AA84" t="s">
+    <row r="89">
+      <c r="I89" t="s">
+        <v>513</v>
+      </c>
+      <c r="AE89" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="85" spans="8:27">
-      <c r="H85" t="s">
-        <v>509</v>
-      </c>
-      <c r="AA85" t="s">
+    <row r="90">
+      <c r="I90" t="s">
+        <v>515</v>
+      </c>
+      <c r="AE90" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="86" spans="8:27">
-      <c r="H86" t="s">
-        <v>511</v>
-      </c>
-      <c r="AA86" t="s">
+    <row r="91">
+      <c r="I91" t="s">
+        <v>517</v>
+      </c>
+      <c r="AE91" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="87" spans="8:27">
-      <c r="H87" t="s">
-        <v>513</v>
-      </c>
-      <c r="AA87" t="s">
+    <row r="92">
+      <c r="I92" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE92" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="88" spans="8:27">
-      <c r="H88" t="s">
-        <v>515</v>
-      </c>
-      <c r="AA88" t="s">
+    <row r="93">
+      <c r="I93" t="s">
+        <v>521</v>
+      </c>
+      <c r="AE93" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="89" spans="8:27">
-      <c r="H89" t="s">
-        <v>517</v>
-      </c>
-      <c r="AA89" t="s">
+    <row r="94">
+      <c r="I94" t="s">
+        <v>523</v>
+      </c>
+      <c r="AE94" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="90" spans="8:27">
-      <c r="H90" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA90" t="s">
+    <row r="95">
+      <c r="I95" t="s">
+        <v>525</v>
+      </c>
+      <c r="AE95" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="91" spans="8:27">
-      <c r="H91" t="s">
-        <v>521</v>
-      </c>
-      <c r="AA91" t="s">
+    <row r="96">
+      <c r="I96" t="s">
+        <v>527</v>
+      </c>
+      <c r="AE96" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="92" spans="8:27">
-      <c r="H92" t="s">
-        <v>523</v>
-      </c>
-      <c r="AA92" t="s">
+    <row r="97">
+      <c r="I97" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE97" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="93" spans="8:27">
-      <c r="H93" t="s">
-        <v>525</v>
-      </c>
-      <c r="AA93" t="s">
+    <row r="98">
+      <c r="I98" t="s">
+        <v>531</v>
+      </c>
+      <c r="AE98" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="94" spans="8:27">
-      <c r="H94" t="s">
-        <v>527</v>
-      </c>
-      <c r="AA94" t="s">
+    <row r="99">
+      <c r="I99" t="s">
+        <v>533</v>
+      </c>
+      <c r="AE99" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="95" spans="8:27">
-      <c r="H95" t="s">
-        <v>529</v>
-      </c>
-      <c r="AA95" t="s">
+    <row r="100">
+      <c r="I100" t="s">
+        <v>535</v>
+      </c>
+      <c r="AE100" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="96" spans="8:27">
-      <c r="H96" t="s">
-        <v>531</v>
-      </c>
-      <c r="AA96" t="s">
+    <row r="101">
+      <c r="I101" t="s">
+        <v>537</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="I102" t="s">
+        <v>539</v>
+      </c>
+      <c r="AE102" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="97" spans="8:27">
-      <c r="H97" t="s">
-        <v>533</v>
-      </c>
-      <c r="AA97" t="s">
+    <row r="103">
+      <c r="I103" t="s">
+        <v>541</v>
+      </c>
+      <c r="AE103" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="98" spans="8:27">
-      <c r="H98" t="s">
-        <v>535</v>
-      </c>
-      <c r="AA98" t="s">
+    <row r="104">
+      <c r="I104" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE104" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="99" spans="8:27">
-      <c r="H99" t="s">
-        <v>537</v>
-      </c>
-      <c r="AA99" t="s">
+    <row r="105">
+      <c r="I105" t="s">
+        <v>545</v>
+      </c>
+      <c r="AE105" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="100" spans="8:27">
-      <c r="H100" t="s">
-        <v>539</v>
-      </c>
-      <c r="AA100" t="s">
+    <row r="106">
+      <c r="I106" t="s">
+        <v>547</v>
+      </c>
+      <c r="AE106" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="101" spans="8:27">
-      <c r="H101" t="s">
-        <v>541</v>
-      </c>
-      <c r="AA101" t="s">
+    <row r="107">
+      <c r="I107" t="s">
+        <v>549</v>
+      </c>
+      <c r="AE107" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="102" spans="8:27">
-      <c r="H102" t="s">
-        <v>543</v>
-      </c>
-      <c r="AA102" t="s">
+    <row r="108">
+      <c r="I108" t="s">
+        <v>551</v>
+      </c>
+      <c r="AE108" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="103" spans="8:27">
-      <c r="H103" t="s">
-        <v>545</v>
-      </c>
-      <c r="AA103" t="s">
+    <row r="109">
+      <c r="I109" t="s">
+        <v>553</v>
+      </c>
+      <c r="AE109" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="104" spans="8:27">
-      <c r="H104" t="s">
-        <v>547</v>
-      </c>
-      <c r="AA104" t="s">
+    <row r="110">
+      <c r="I110" t="s">
+        <v>555</v>
+      </c>
+      <c r="AE110" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="105" spans="8:27">
-      <c r="H105" t="s">
-        <v>549</v>
-      </c>
-      <c r="AA105" t="s">
+    <row r="111">
+      <c r="I111" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE111" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="106" spans="8:27">
-      <c r="H106" t="s">
-        <v>551</v>
-      </c>
-      <c r="AA106" t="s">
+    <row r="112">
+      <c r="I112" t="s">
+        <v>559</v>
+      </c>
+      <c r="AE112" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="107" spans="8:27">
-      <c r="H107" t="s">
-        <v>553</v>
-      </c>
-      <c r="AA107" t="s">
+    <row r="113">
+      <c r="I113" t="s">
+        <v>561</v>
+      </c>
+      <c r="AE113" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="108" spans="8:27">
-      <c r="H108" t="s">
-        <v>555</v>
-      </c>
-      <c r="AA108" t="s">
+    <row r="114">
+      <c r="AE114" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="109" spans="8:27">
-      <c r="H109" t="s">
-        <v>557</v>
-      </c>
-      <c r="AA109" t="s">
+    <row r="115">
+      <c r="AE115" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="110" spans="8:27">
-      <c r="H110" t="s">
-        <v>559</v>
-      </c>
-      <c r="AA110" t="s">
+    <row r="116">
+      <c r="AE116" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="111" spans="8:27">
-      <c r="H111" t="s">
-        <v>561</v>
-      </c>
-      <c r="AA111" t="s">
+    <row r="117">
+      <c r="AE117" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="112" spans="27:27">
-      <c r="AA112" t="s">
+    <row r="118">
+      <c r="AE118" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="113" spans="27:27">
-      <c r="AA113" t="s">
+    <row r="119">
+      <c r="AE119" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="114" spans="27:27">
-      <c r="AA114" t="s">
+    <row r="120">
+      <c r="AE120" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="115" spans="27:27">
-      <c r="AA115" t="s">
+    <row r="121">
+      <c r="AE121" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="116" spans="27:27">
-      <c r="AA116" t="s">
+    <row r="122">
+      <c r="AE122" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="117" spans="27:27">
-      <c r="AA117" t="s">
+    <row r="123">
+      <c r="AE123" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="118" spans="27:27">
-      <c r="AA118" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="119" spans="27:27">
-      <c r="AA119" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="120" spans="27:27">
-      <c r="AA120" t="s">
+    <row r="124">
+      <c r="AE124" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="121" spans="27:27">
-      <c r="AA121" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="122" spans="27:27">
-      <c r="AA122" t="s">
+    <row r="125">
+      <c r="AE125" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="123" spans="27:27">
-      <c r="AA123" t="s">
+    <row r="126">
+      <c r="AE126" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="124" spans="27:27">
-      <c r="AA124" t="s">
+    <row r="127">
+      <c r="AE127" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="125" spans="27:27">
-      <c r="AA125" t="s">
+    <row r="128">
+      <c r="AE128" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="AE129" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="126" spans="27:27">
-      <c r="AA126" t="s">
+    <row r="130">
+      <c r="AE130" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="127" spans="27:27">
-      <c r="AA127" t="s">
+    <row r="131">
+      <c r="AE131" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="128" spans="27:27">
-      <c r="AA128" t="s">
+    <row r="132">
+      <c r="AE132" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="129" spans="27:27">
-      <c r="AA129" t="s">
+    <row r="133">
+      <c r="AE133" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="130" spans="27:27">
-      <c r="AA130" t="s">
+    <row r="134">
+      <c r="AE134" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="131" spans="27:27">
-      <c r="AA131" t="s">
+    <row r="135">
+      <c r="AE135" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="132" spans="27:27">
-      <c r="AA132" t="s">
+    <row r="136">
+      <c r="AE136" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="133" spans="27:27">
-      <c r="AA133" t="s">
+    <row r="137">
+      <c r="AE137" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="134" spans="27:27">
-      <c r="AA134" t="s">
+    <row r="138">
+      <c r="AE138" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="135" spans="27:27">
-      <c r="AA135" t="s">
+    <row r="139">
+      <c r="AE139" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="AE140" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="136" spans="27:27">
-      <c r="AA136" t="s">
+    <row r="141">
+      <c r="AE141" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="137" spans="27:27">
-      <c r="AA137" t="s">
+    <row r="142">
+      <c r="AE142" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="138" spans="27:27">
-      <c r="AA138" t="s">
+    <row r="143">
+      <c r="AE143" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="139" spans="27:27">
-      <c r="AA139" t="s">
+    <row r="144">
+      <c r="AE144" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="140" spans="27:27">
-      <c r="AA140" t="s">
+    <row r="145">
+      <c r="AE145" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="141" spans="27:27">
-      <c r="AA141" t="s">
+    <row r="146">
+      <c r="AE146" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="142" spans="27:27">
-      <c r="AA142" t="s">
+    <row r="147">
+      <c r="AE147" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="143" spans="27:27">
-      <c r="AA143" t="s">
+    <row r="148">
+      <c r="AE148" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="144" spans="27:27">
-      <c r="AA144" t="s">
+    <row r="149">
+      <c r="AE149" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="145" spans="27:27">
-      <c r="AA145" t="s">
+    <row r="150">
+      <c r="AE150" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="146" spans="27:27">
-      <c r="AA146" t="s">
+    <row r="151">
+      <c r="AE151" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AE152" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="147" spans="27:27">
-      <c r="AA147" t="s">
+    <row r="153">
+      <c r="AE153" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="148" spans="27:27">
-      <c r="AA148" t="s">
+    <row r="154">
+      <c r="AE154" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="149" spans="27:27">
-      <c r="AA149" t="s">
+    <row r="155">
+      <c r="AE155" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="150" spans="27:27">
-      <c r="AA150" t="s">
+    <row r="156">
+      <c r="AE156" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="151" spans="27:27">
-      <c r="AA151" t="s">
+    <row r="157">
+      <c r="AE157" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="152" spans="27:27">
-      <c r="AA152" t="s">
+    <row r="158">
+      <c r="AE158" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="153" spans="27:27">
-      <c r="AA153" t="s">
+    <row r="159">
+      <c r="AE159" t="s">
         <v>604</v>
       </c>
     </row>
+    <row r="160">
+      <c r="AE160" t="s">
+        <v>922</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="28.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="4" customWidth="1"/>
-    <col min="7" max="9" width="20.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="20.625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="1.625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1"/>
-    <col min="14" max="14" width="15.875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="49.875" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="10.875" style="9"/>
+    <col min="1" max="1" customWidth="true" style="2" width="12.625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="11.375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="9.5" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="4" width="29.375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="4" width="28.375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="4" width="14.125" collapsed="false"/>
+    <col min="7" max="9" customWidth="true" style="4" width="20.5" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="5" width="20.625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="6" width="1.625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="7" width="15.875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="6" width="49.875" collapsed="false"/>
+    <col min="16" max="16384" style="9" width="10.875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15">
       <c r="A1" s="10" t="s">
         <v>605</v>
       </c>
@@ -6333,7 +7433,7 @@
       <c r="N1" s="36"/>
       <c r="O1" s="37"/>
     </row>
-    <row r="2" ht="107.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="107.1" r="2" spans="1:15">
       <c r="A2" s="12" t="s">
         <v>612</v>
       </c>
@@ -6354,7 +7454,7 @@
       <c r="N2" s="38"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" ht="9.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="9.95" r="3" spans="1:15">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
@@ -6371,7 +7471,7 @@
       <c r="N3" s="28"/>
       <c r="O3" s="17"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="20.1" r="4" s="1" spans="1:15">
       <c r="A4" s="18" t="s">
         <v>614</v>
       </c>
@@ -6416,7 +7516,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="5" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15">
       <c r="A5" s="15" t="s">
         <v>627</v>
       </c>
@@ -6441,7 +7541,7 @@
       <c r="N5" s="28"/>
       <c r="O5" s="17"/>
     </row>
-    <row r="6" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="20" t="s">
@@ -6464,7 +7564,7 @@
       <c r="N6" s="28"/>
       <c r="O6" s="17"/>
     </row>
-    <row r="7" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="20" t="s">
@@ -6489,7 +7589,7 @@
       <c r="N7" s="28"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15">
       <c r="A8" s="15" t="s">
         <v>632</v>
       </c>
@@ -6514,7 +7614,7 @@
       <c r="N8" s="28"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="20" t="s">
@@ -6539,7 +7639,7 @@
       <c r="N9" s="28"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="20"/>
@@ -6556,7 +7656,7 @@
       <c r="N10" s="28"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="20"/>
@@ -6573,7 +7673,7 @@
       <c r="N11" s="28"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="20"/>
@@ -6590,7 +7690,7 @@
       <c r="N12" s="28"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="20"/>
@@ -6607,7 +7707,7 @@
       <c r="N13" s="28"/>
       <c r="O13" s="17"/>
     </row>
-    <row r="14" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="20"/>
@@ -6624,7 +7724,7 @@
       <c r="N14" s="28"/>
       <c r="O14" s="17"/>
     </row>
-    <row r="15" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="20"/>
@@ -6641,7 +7741,7 @@
       <c r="N15" s="28"/>
       <c r="O15" s="17"/>
     </row>
-    <row r="16" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="20"/>
@@ -6658,7 +7758,7 @@
       <c r="N16" s="28"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="20"/>
@@ -6675,7 +7775,7 @@
       <c r="N17" s="28"/>
       <c r="O17" s="17"/>
     </row>
-    <row r="18" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="20"/>
@@ -6692,7 +7792,7 @@
       <c r="N18" s="28"/>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="20"/>
@@ -6709,7 +7809,7 @@
       <c r="N19" s="28"/>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="20"/>
@@ -6726,7 +7826,7 @@
       <c r="N20" s="28"/>
       <c r="O20" s="17"/>
     </row>
-    <row r="21" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="20"/>
@@ -6743,7 +7843,7 @@
       <c r="N21" s="28"/>
       <c r="O21" s="17"/>
     </row>
-    <row r="22" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="20"/>
@@ -6760,7 +7860,7 @@
       <c r="N22" s="28"/>
       <c r="O22" s="17"/>
     </row>
-    <row r="23" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="20"/>
@@ -6777,7 +7877,7 @@
       <c r="N23" s="28"/>
       <c r="O23" s="17"/>
     </row>
-    <row r="24" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="20"/>
@@ -6794,7 +7894,7 @@
       <c r="N24" s="28"/>
       <c r="O24" s="17"/>
     </row>
-    <row r="25" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="20"/>
@@ -6811,7 +7911,7 @@
       <c r="N25" s="28"/>
       <c r="O25" s="17"/>
     </row>
-    <row r="26" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="20"/>
@@ -6828,7 +7928,7 @@
       <c r="N26" s="28"/>
       <c r="O26" s="17"/>
     </row>
-    <row r="27" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="20"/>
@@ -6845,7 +7945,7 @@
       <c r="N27" s="28"/>
       <c r="O27" s="17"/>
     </row>
-    <row r="28" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="20"/>
@@ -6862,7 +7962,7 @@
       <c r="N28" s="28"/>
       <c r="O28" s="17"/>
     </row>
-    <row r="29" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="20"/>
@@ -6879,7 +7979,7 @@
       <c r="N29" s="28"/>
       <c r="O29" s="17"/>
     </row>
-    <row r="30" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15">
       <c r="A30" s="15"/>
       <c r="B30" s="24"/>
       <c r="C30" s="20"/>
@@ -6896,7 +7996,7 @@
       <c r="N30" s="28"/>
       <c r="O30" s="17"/>
     </row>
-    <row r="31" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="20"/>
@@ -6913,7 +8013,7 @@
       <c r="N31" s="28"/>
       <c r="O31" s="17"/>
     </row>
-    <row r="32" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="20"/>
@@ -6930,7 +8030,7 @@
       <c r="N32" s="28"/>
       <c r="O32" s="17"/>
     </row>
-    <row r="33" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="20"/>
@@ -6947,7 +8047,7 @@
       <c r="N33" s="28"/>
       <c r="O33" s="17"/>
     </row>
-    <row r="34" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="20"/>
@@ -6964,7 +8064,7 @@
       <c r="N34" s="28"/>
       <c r="O34" s="17"/>
     </row>
-    <row r="35" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="20"/>
@@ -6981,7 +8081,7 @@
       <c r="N35" s="28"/>
       <c r="O35" s="17"/>
     </row>
-    <row r="36" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="20"/>
@@ -6998,7 +8098,7 @@
       <c r="N36" s="28"/>
       <c r="O36" s="17"/>
     </row>
-    <row r="37" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="20"/>
@@ -7015,7 +8115,7 @@
       <c r="N37" s="28"/>
       <c r="O37" s="17"/>
     </row>
-    <row r="38" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="20"/>
@@ -7032,7 +8132,7 @@
       <c r="N38" s="28"/>
       <c r="O38" s="17"/>
     </row>
-    <row r="39" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="20"/>
@@ -7049,7 +8149,7 @@
       <c r="N39" s="28"/>
       <c r="O39" s="17"/>
     </row>
-    <row r="40" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="20"/>
@@ -7066,7 +8166,7 @@
       <c r="N40" s="28"/>
       <c r="O40" s="17"/>
     </row>
-    <row r="41" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="20"/>
@@ -7083,7 +8183,7 @@
       <c r="N41" s="28"/>
       <c r="O41" s="17"/>
     </row>
-    <row r="42" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="20"/>
@@ -7100,7 +8200,7 @@
       <c r="N42" s="28"/>
       <c r="O42" s="17"/>
     </row>
-    <row r="43" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="20"/>
@@ -7117,7 +8217,7 @@
       <c r="N43" s="28"/>
       <c r="O43" s="17"/>
     </row>
-    <row r="44" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="20"/>
@@ -7134,7 +8234,7 @@
       <c r="N44" s="28"/>
       <c r="O44" s="17"/>
     </row>
-    <row r="45" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="20"/>
@@ -7151,7 +8251,7 @@
       <c r="N45" s="28"/>
       <c r="O45" s="17"/>
     </row>
-    <row r="46" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="20"/>
@@ -7168,7 +8268,7 @@
       <c r="N46" s="28"/>
       <c r="O46" s="17"/>
     </row>
-    <row r="47" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="20"/>
@@ -7185,7 +8285,7 @@
       <c r="N47" s="28"/>
       <c r="O47" s="17"/>
     </row>
-    <row r="48" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="20"/>
@@ -7202,7 +8302,7 @@
       <c r="N48" s="28"/>
       <c r="O48" s="17"/>
     </row>
-    <row r="49" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="20"/>
@@ -7219,7 +8319,7 @@
       <c r="N49" s="28"/>
       <c r="O49" s="17"/>
     </row>
-    <row r="50" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="20"/>
@@ -7237,7 +8337,7 @@
       <c r="O50" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -7245,59 +8345,59 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.625" style="4" customWidth="1"/>
-    <col min="5" max="7" width="32.625" style="4" customWidth="1"/>
-    <col min="8" max="9" width="20.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="20.625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="1.625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1"/>
-    <col min="14" max="14" width="15.875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="49.875" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="10.875" style="9"/>
+    <col min="1" max="1" customWidth="true" style="2" width="16.375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="11.375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="9.5" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="4" width="29.625" collapsed="false"/>
+    <col min="5" max="7" customWidth="true" style="4" width="32.625" collapsed="false"/>
+    <col min="8" max="9" customWidth="true" style="4" width="20.5" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="5" width="20.625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="6" width="1.625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="7" width="15.875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="6" width="49.875" collapsed="false"/>
+    <col min="16" max="16384" style="9" width="10.875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15">
       <c r="A1" s="10" t="s">
         <v>605</v>
       </c>
@@ -7328,7 +8428,7 @@
       <c r="N1" s="36"/>
       <c r="O1" s="37"/>
     </row>
-    <row r="2" ht="140.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15">
       <c r="A2" s="12" t="s">
         <v>612</v>
       </c>
@@ -7349,7 +8449,7 @@
       <c r="N2" s="38"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" ht="9.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="9.95" r="3" spans="1:15">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
@@ -7366,7 +8466,7 @@
       <c r="N3" s="28"/>
       <c r="O3" s="17"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="20.1" r="4" s="1" spans="1:15">
       <c r="A4" s="18" t="s">
         <v>614</v>
       </c>
@@ -7411,7 +8511,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="5" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15">
       <c r="A5" s="15" t="s">
         <v>634</v>
       </c>
@@ -7436,7 +8536,7 @@
       <c r="N5" s="28"/>
       <c r="O5" s="17"/>
     </row>
-    <row r="6" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="20" t="s">
@@ -7463,7 +8563,7 @@
       <c r="N6" s="28"/>
       <c r="O6" s="17"/>
     </row>
-    <row r="7" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="20" t="s">
@@ -7486,7 +8586,7 @@
       <c r="N7" s="28"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="20" t="s">
@@ -7509,7 +8609,7 @@
       <c r="N8" s="28"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="20" t="s">
@@ -7536,7 +8636,7 @@
       <c r="N9" s="28"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15">
       <c r="A10" s="15" t="s">
         <v>642</v>
       </c>
@@ -7563,7 +8663,7 @@
       <c r="N10" s="28"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="20" t="s">
@@ -7590,7 +8690,7 @@
       <c r="N11" s="28"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="20" t="s">
@@ -7613,7 +8713,7 @@
       <c r="N12" s="28"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="20" t="s">
@@ -7638,7 +8738,7 @@
       <c r="N13" s="28"/>
       <c r="O13" s="17"/>
     </row>
-    <row r="14" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="20" t="s">
@@ -7663,7 +8763,7 @@
       <c r="N14" s="28"/>
       <c r="O14" s="17"/>
     </row>
-    <row r="15" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="20" t="s">
@@ -7690,7 +8790,7 @@
       <c r="N15" s="28"/>
       <c r="O15" s="17"/>
     </row>
-    <row r="16" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="20" t="s">
@@ -7713,7 +8813,7 @@
       <c r="N16" s="28"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="20" t="s">
@@ -7738,7 +8838,7 @@
       <c r="N17" s="28"/>
       <c r="O17" s="17"/>
     </row>
-    <row r="18" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="20"/>
@@ -7755,7 +8855,7 @@
       <c r="N18" s="28"/>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="20"/>
@@ -7772,7 +8872,7 @@
       <c r="N19" s="28"/>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="20"/>
@@ -7789,7 +8889,7 @@
       <c r="N20" s="28"/>
       <c r="O20" s="17"/>
     </row>
-    <row r="21" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="20"/>
@@ -7806,7 +8906,7 @@
       <c r="N21" s="28"/>
       <c r="O21" s="17"/>
     </row>
-    <row r="22" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="20"/>
@@ -7823,7 +8923,7 @@
       <c r="N22" s="28"/>
       <c r="O22" s="17"/>
     </row>
-    <row r="23" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="20"/>
@@ -7840,7 +8940,7 @@
       <c r="N23" s="28"/>
       <c r="O23" s="17"/>
     </row>
-    <row r="24" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="20"/>
@@ -7857,7 +8957,7 @@
       <c r="N24" s="28"/>
       <c r="O24" s="17"/>
     </row>
-    <row r="25" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="20"/>
@@ -7874,7 +8974,7 @@
       <c r="N25" s="28"/>
       <c r="O25" s="17"/>
     </row>
-    <row r="26" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="20"/>
@@ -7891,7 +8991,7 @@
       <c r="N26" s="28"/>
       <c r="O26" s="17"/>
     </row>
-    <row r="27" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="20"/>
@@ -7908,7 +9008,7 @@
       <c r="N27" s="28"/>
       <c r="O27" s="17"/>
     </row>
-    <row r="28" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="20"/>
@@ -7925,7 +9025,7 @@
       <c r="N28" s="28"/>
       <c r="O28" s="17"/>
     </row>
-    <row r="29" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="20"/>
@@ -7942,7 +9042,7 @@
       <c r="N29" s="28"/>
       <c r="O29" s="17"/>
     </row>
-    <row r="30" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="20"/>
@@ -7959,7 +9059,7 @@
       <c r="N30" s="28"/>
       <c r="O30" s="17"/>
     </row>
-    <row r="31" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15">
       <c r="A31" s="15"/>
       <c r="B31" s="24"/>
       <c r="C31" s="20"/>
@@ -7976,7 +9076,7 @@
       <c r="N31" s="28"/>
       <c r="O31" s="17"/>
     </row>
-    <row r="32" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="20"/>
@@ -7993,7 +9093,7 @@
       <c r="N32" s="28"/>
       <c r="O32" s="17"/>
     </row>
-    <row r="33" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="20"/>
@@ -8010,7 +9110,7 @@
       <c r="N33" s="28"/>
       <c r="O33" s="17"/>
     </row>
-    <row r="34" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="20"/>
@@ -8027,7 +9127,7 @@
       <c r="N34" s="28"/>
       <c r="O34" s="17"/>
     </row>
-    <row r="35" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="20"/>
@@ -8044,7 +9144,7 @@
       <c r="N35" s="28"/>
       <c r="O35" s="17"/>
     </row>
-    <row r="36" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="20"/>
@@ -8061,7 +9161,7 @@
       <c r="N36" s="28"/>
       <c r="O36" s="17"/>
     </row>
-    <row r="37" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="20"/>
@@ -8078,7 +9178,7 @@
       <c r="N37" s="28"/>
       <c r="O37" s="17"/>
     </row>
-    <row r="38" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="20"/>
@@ -8095,7 +9195,7 @@
       <c r="N38" s="28"/>
       <c r="O38" s="17"/>
     </row>
-    <row r="39" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="20"/>
@@ -8112,7 +9212,7 @@
       <c r="N39" s="28"/>
       <c r="O39" s="17"/>
     </row>
-    <row r="40" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="20"/>
@@ -8129,7 +9229,7 @@
       <c r="N40" s="28"/>
       <c r="O40" s="17"/>
     </row>
-    <row r="41" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="20"/>
@@ -8146,7 +9246,7 @@
       <c r="N41" s="28"/>
       <c r="O41" s="17"/>
     </row>
-    <row r="42" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="20"/>
@@ -8163,7 +9263,7 @@
       <c r="N42" s="28"/>
       <c r="O42" s="17"/>
     </row>
-    <row r="43" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="20"/>
@@ -8180,7 +9280,7 @@
       <c r="N43" s="28"/>
       <c r="O43" s="17"/>
     </row>
-    <row r="44" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="20"/>
@@ -8197,7 +9297,7 @@
       <c r="N44" s="28"/>
       <c r="O44" s="17"/>
     </row>
-    <row r="45" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="20"/>
@@ -8214,7 +9314,7 @@
       <c r="N45" s="28"/>
       <c r="O45" s="17"/>
     </row>
-    <row r="46" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="20"/>
@@ -8231,7 +9331,7 @@
       <c r="N46" s="28"/>
       <c r="O46" s="17"/>
     </row>
-    <row r="47" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="20"/>
@@ -8248,7 +9348,7 @@
       <c r="N47" s="28"/>
       <c r="O47" s="17"/>
     </row>
-    <row r="48" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="20"/>
@@ -8265,7 +9365,7 @@
       <c r="N48" s="28"/>
       <c r="O48" s="17"/>
     </row>
-    <row r="49" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="20"/>
@@ -8282,7 +9382,7 @@
       <c r="N49" s="28"/>
       <c r="O49" s="17"/>
     </row>
-    <row r="50" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="20"/>
@@ -8300,7 +9400,7 @@
       <c r="O50" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -8308,61 +9408,61 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="64.375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.375" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="54" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="53.5" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.625" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="20.5" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.625" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="6" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="9" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="11.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="64.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="9.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="31.375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="54.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="53.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="8.625" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="4" width="20.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="20.625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="6" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15">
       <c r="A1" s="10" t="s">
         <v>605</v>
       </c>
@@ -8393,7 +9493,7 @@
       <c r="N1" s="36"/>
       <c r="O1" s="37"/>
     </row>
-    <row r="2" ht="140.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15">
       <c r="A2" s="12" t="s">
         <v>612</v>
       </c>
@@ -8414,7 +9514,7 @@
       <c r="N2" s="38"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" ht="9.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="9.95" r="3" spans="1:15">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
@@ -8431,7 +9531,7 @@
       <c r="N3" s="28"/>
       <c r="O3" s="17"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="20.1" r="4" s="1" spans="1:15">
       <c r="A4" s="18" t="s">
         <v>614</v>
       </c>
@@ -8476,7 +9576,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="5" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15">
       <c r="A5" s="15" t="s">
         <v>650</v>
       </c>
@@ -8503,7 +9603,7 @@
       <c r="N5" s="28"/>
       <c r="O5" s="17"/>
     </row>
-    <row r="6" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="20" t="s">
@@ -8526,7 +9626,7 @@
       <c r="N6" s="28"/>
       <c r="O6" s="17"/>
     </row>
-    <row r="7" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>654</v>
@@ -8553,7 +9653,7 @@
       <c r="N7" s="28"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>657</v>
@@ -8580,7 +9680,7 @@
       <c r="N8" s="28"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>660</v>
@@ -8605,7 +9705,7 @@
       <c r="N9" s="28"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>662</v>
@@ -8630,7 +9730,7 @@
       <c r="N10" s="28"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15">
       <c r="A11" s="15"/>
       <c r="B11" s="62" t="s">
         <v>664</v>
@@ -8657,7 +9757,7 @@
       <c r="N11" s="28"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" ht="36.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="36.95" r="12" spans="1:15">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>666</v>
@@ -8686,7 +9786,7 @@
       <c r="N12" s="28"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15">
       <c r="A13" s="15" t="s">
         <v>668</v>
       </c>
@@ -8711,7 +9811,7 @@
       <c r="N13" s="28"/>
       <c r="O13" s="17"/>
     </row>
-    <row r="14" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
         <v>670</v>
@@ -8738,7 +9838,7 @@
       <c r="N14" s="28"/>
       <c r="O14" s="17"/>
     </row>
-    <row r="15" ht="38.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="38.1" r="15" spans="1:15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="20" t="s">
@@ -8761,7 +9861,7 @@
       <c r="N15" s="28"/>
       <c r="O15" s="17"/>
     </row>
-    <row r="16" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="20"/>
@@ -8778,7 +9878,7 @@
       <c r="N16" s="28"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="20"/>
@@ -8795,7 +9895,7 @@
       <c r="N17" s="28"/>
       <c r="O17" s="17"/>
     </row>
-    <row r="18" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="20"/>
@@ -8812,7 +9912,7 @@
       <c r="N18" s="28"/>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="20"/>
@@ -8829,7 +9929,7 @@
       <c r="N19" s="28"/>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="20"/>
@@ -8846,7 +9946,7 @@
       <c r="N20" s="28"/>
       <c r="O20" s="17"/>
     </row>
-    <row r="21" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="20"/>
@@ -8863,7 +9963,7 @@
       <c r="N21" s="28"/>
       <c r="O21" s="17"/>
     </row>
-    <row r="22" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="20"/>
@@ -8880,7 +9980,7 @@
       <c r="N22" s="28"/>
       <c r="O22" s="17"/>
     </row>
-    <row r="23" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="20"/>
@@ -8897,7 +9997,7 @@
       <c r="N23" s="28"/>
       <c r="O23" s="17"/>
     </row>
-    <row r="24" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="20"/>
@@ -8914,7 +10014,7 @@
       <c r="N24" s="28"/>
       <c r="O24" s="17"/>
     </row>
-    <row r="25" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="20"/>
@@ -8931,7 +10031,7 @@
       <c r="N25" s="28"/>
       <c r="O25" s="17"/>
     </row>
-    <row r="26" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="20"/>
@@ -8948,7 +10048,7 @@
       <c r="N26" s="28"/>
       <c r="O26" s="17"/>
     </row>
-    <row r="27" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="20"/>
@@ -8965,7 +10065,7 @@
       <c r="N27" s="28"/>
       <c r="O27" s="17"/>
     </row>
-    <row r="28" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="20"/>
@@ -8982,7 +10082,7 @@
       <c r="N28" s="28"/>
       <c r="O28" s="17"/>
     </row>
-    <row r="29" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="20"/>
@@ -8999,7 +10099,7 @@
       <c r="N29" s="28"/>
       <c r="O29" s="17"/>
     </row>
-    <row r="30" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="20"/>
@@ -9016,7 +10116,7 @@
       <c r="N30" s="28"/>
       <c r="O30" s="17"/>
     </row>
-    <row r="31" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="20"/>
@@ -9033,7 +10133,7 @@
       <c r="N31" s="28"/>
       <c r="O31" s="17"/>
     </row>
-    <row r="32" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15">
       <c r="A32" s="15"/>
       <c r="B32" s="24"/>
       <c r="C32" s="20"/>
@@ -9050,7 +10150,7 @@
       <c r="N32" s="28"/>
       <c r="O32" s="17"/>
     </row>
-    <row r="33" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="20"/>
@@ -9067,7 +10167,7 @@
       <c r="N33" s="28"/>
       <c r="O33" s="17"/>
     </row>
-    <row r="34" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="20"/>
@@ -9084,7 +10184,7 @@
       <c r="N34" s="28"/>
       <c r="O34" s="17"/>
     </row>
-    <row r="35" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="20"/>
@@ -9101,7 +10201,7 @@
       <c r="N35" s="28"/>
       <c r="O35" s="17"/>
     </row>
-    <row r="36" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="20"/>
@@ -9118,7 +10218,7 @@
       <c r="N36" s="28"/>
       <c r="O36" s="17"/>
     </row>
-    <row r="37" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="20"/>
@@ -9135,7 +10235,7 @@
       <c r="N37" s="28"/>
       <c r="O37" s="17"/>
     </row>
-    <row r="38" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="20"/>
@@ -9152,7 +10252,7 @@
       <c r="N38" s="28"/>
       <c r="O38" s="17"/>
     </row>
-    <row r="39" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="20"/>
@@ -9169,7 +10269,7 @@
       <c r="N39" s="28"/>
       <c r="O39" s="17"/>
     </row>
-    <row r="40" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="20"/>
@@ -9186,7 +10286,7 @@
       <c r="N40" s="28"/>
       <c r="O40" s="17"/>
     </row>
-    <row r="41" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="20"/>
@@ -9203,7 +10303,7 @@
       <c r="N41" s="28"/>
       <c r="O41" s="17"/>
     </row>
-    <row r="42" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="20"/>
@@ -9220,7 +10320,7 @@
       <c r="N42" s="28"/>
       <c r="O42" s="17"/>
     </row>
-    <row r="43" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="20"/>
@@ -9237,7 +10337,7 @@
       <c r="N43" s="28"/>
       <c r="O43" s="17"/>
     </row>
-    <row r="44" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="20"/>
@@ -9254,7 +10354,7 @@
       <c r="N44" s="28"/>
       <c r="O44" s="17"/>
     </row>
-    <row r="45" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="20"/>
@@ -9271,7 +10371,7 @@
       <c r="N45" s="28"/>
       <c r="O45" s="17"/>
     </row>
-    <row r="46" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="20"/>
@@ -9288,7 +10388,7 @@
       <c r="N46" s="28"/>
       <c r="O46" s="17"/>
     </row>
-    <row r="47" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="20"/>
@@ -9305,7 +10405,7 @@
       <c r="N47" s="28"/>
       <c r="O47" s="17"/>
     </row>
-    <row r="48" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="20"/>
@@ -9322,7 +10422,7 @@
       <c r="N48" s="28"/>
       <c r="O48" s="17"/>
     </row>
-    <row r="49" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="20"/>
@@ -9339,7 +10439,7 @@
       <c r="N49" s="28"/>
       <c r="O49" s="17"/>
     </row>
-    <row r="50" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="20"/>
@@ -9357,7 +10457,7 @@
       <c r="O50" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -9365,60 +10465,60 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A18" ySplit="4"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E19" pane="bottomLeft" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="28.875" style="46" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="47" customWidth="1"/>
-    <col min="4" max="4" width="37.5" style="48" customWidth="1"/>
-    <col min="5" max="5" width="49.5" style="48" customWidth="1"/>
-    <col min="6" max="6" width="77.875" style="48" customWidth="1"/>
-    <col min="7" max="9" width="18.5" style="48" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="49" customWidth="1"/>
-    <col min="11" max="11" width="1.625" style="50" customWidth="1"/>
-    <col min="12" max="12" width="12" style="51" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="52" customWidth="1"/>
-    <col min="14" max="14" width="15.875" style="51" customWidth="1"/>
-    <col min="15" max="15" width="49.875" style="50" customWidth="1"/>
-    <col min="16" max="16384" width="10.875" style="53"/>
+    <col min="1" max="1" customWidth="true" style="45" width="18.875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="46" width="28.875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="47" width="9.5" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="48" width="37.5" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="48" width="49.5" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="48" width="77.875" collapsed="false"/>
+    <col min="7" max="9" customWidth="true" style="48" width="18.5" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="49" width="18.5" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="50" width="1.625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="51" width="12.0" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="52" width="12.5" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="51" width="15.875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="50" width="49.875" collapsed="false"/>
+    <col min="16" max="16384" style="53" width="10.875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" s="43" customFormat="1" ht="23.1" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="23.1" r="1" s="43" spans="1:15">
       <c r="A1" s="54" t="s">
         <v>605</v>
       </c>
@@ -9449,7 +10549,7 @@
       <c r="N1" s="36"/>
       <c r="O1" s="37"/>
     </row>
-    <row r="2" ht="48.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="48.95" r="2" spans="1:15">
       <c r="A2" s="12" t="s">
         <v>673</v>
       </c>
@@ -9470,7 +10570,7 @@
       <c r="N2" s="60"/>
       <c r="O2" s="61"/>
     </row>
-    <row r="3" s="43" customFormat="1" ht="9.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="9.95" r="3" s="43" spans="1:15">
       <c r="A3" s="19"/>
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
@@ -9487,7 +10587,7 @@
       <c r="N3" s="28"/>
       <c r="O3" s="17"/>
     </row>
-    <row r="4" s="44" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="20.1" r="4" s="44" spans="1:15">
       <c r="A4" s="18" t="s">
         <v>614</v>
       </c>
@@ -9532,7 +10632,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="5" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="5" s="43" spans="1:15">
       <c r="A5" s="19" t="s">
         <v>674</v>
       </c>
@@ -9559,7 +10659,7 @@
       <c r="N5" s="28"/>
       <c r="O5" s="17"/>
     </row>
-    <row r="6" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="6" s="43" spans="1:15">
       <c r="A6" s="19"/>
       <c r="B6" s="15"/>
       <c r="C6" s="20" t="s">
@@ -9584,7 +10684,7 @@
       <c r="N6" s="28"/>
       <c r="O6" s="17"/>
     </row>
-    <row r="7" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="7" s="43" spans="1:15">
       <c r="A7" s="19"/>
       <c r="B7" s="15"/>
       <c r="C7" s="20" t="s">
@@ -9607,7 +10707,7 @@
       <c r="N7" s="28"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="8" s="43" spans="1:15">
       <c r="A8" s="19"/>
       <c r="B8" s="15"/>
       <c r="C8" s="20" t="s">
@@ -9630,7 +10730,7 @@
       <c r="N8" s="28"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="9" s="43" spans="1:15">
       <c r="A9" s="19"/>
       <c r="B9" s="15"/>
       <c r="C9" s="20" t="s">
@@ -9653,7 +10753,7 @@
       <c r="N9" s="28"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="10" s="43" spans="1:15">
       <c r="A10" s="19"/>
       <c r="B10" s="40" t="s">
         <v>682</v>
@@ -9680,7 +10780,7 @@
       <c r="N10" s="28"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="11" s="43" spans="1:15">
       <c r="A11" s="19"/>
       <c r="B11" s="15"/>
       <c r="C11" s="20" t="s">
@@ -9705,7 +10805,7 @@
       <c r="N11" s="28"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="12" s="43" spans="1:15">
       <c r="A12" s="19"/>
       <c r="B12" s="15" t="s">
         <v>687</v>
@@ -9730,7 +10830,7 @@
       <c r="N12" s="28"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="13" s="43" spans="1:15">
       <c r="A13" s="19"/>
       <c r="B13" s="15" t="s">
         <v>689</v>
@@ -9755,7 +10855,7 @@
       <c r="N13" s="28"/>
       <c r="O13" s="17"/>
     </row>
-    <row r="14" s="43" customFormat="1" ht="138" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="138" r="14" s="43" spans="1:15">
       <c r="A14" s="19" t="s">
         <v>691</v>
       </c>
@@ -9782,7 +10882,7 @@
       <c r="N14" s="28"/>
       <c r="O14" s="17"/>
     </row>
-    <row r="15" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="15" s="43" spans="1:15">
       <c r="A15" s="19"/>
       <c r="B15" s="15"/>
       <c r="C15" s="20" t="s">
@@ -9805,7 +10905,7 @@
       <c r="N15" s="28"/>
       <c r="O15" s="17"/>
     </row>
-    <row r="16" s="43" customFormat="1" ht="92.1" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="92.1" r="16" s="43" spans="1:15">
       <c r="A16" s="19" t="s">
         <v>695</v>
       </c>
@@ -9832,7 +10932,7 @@
       <c r="N16" s="28"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="17" s="43" spans="1:15">
       <c r="A17" s="19"/>
       <c r="B17" s="15"/>
       <c r="C17" s="20" t="s">
@@ -9855,7 +10955,7 @@
       <c r="N17" s="28"/>
       <c r="O17" s="17"/>
     </row>
-    <row r="18" s="43" customFormat="1" ht="273" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="273" r="18" s="43" spans="1:15">
       <c r="A18" s="19" t="s">
         <v>699</v>
       </c>
@@ -9882,7 +10982,7 @@
       <c r="N18" s="28"/>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="19" s="43" spans="1:15">
       <c r="A19" s="19"/>
       <c r="B19" s="15" t="s">
         <v>701</v>
@@ -9907,7 +11007,7 @@
       <c r="N19" s="28"/>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="20" s="43" spans="1:15">
       <c r="A20" s="19"/>
       <c r="B20" s="15"/>
       <c r="C20" s="20" t="s">
@@ -9930,7 +11030,7 @@
       <c r="N20" s="28"/>
       <c r="O20" s="17"/>
     </row>
-    <row r="21" s="43" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="21" s="43" spans="1:15">
       <c r="A21" s="19"/>
       <c r="B21" s="15"/>
       <c r="C21" s="20" t="s">
@@ -9953,7 +11053,7 @@
       <c r="N21" s="28"/>
       <c r="O21" s="17"/>
     </row>
-    <row r="22" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="22" s="43" spans="1:15">
       <c r="A22" s="19"/>
       <c r="B22" s="15" t="s">
         <v>705</v>
@@ -9982,7 +11082,7 @@
       <c r="N22" s="28"/>
       <c r="O22" s="17"/>
     </row>
-    <row r="23" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="23" s="43" spans="1:15">
       <c r="A23" s="19"/>
       <c r="B23" s="15"/>
       <c r="C23" s="20" t="s">
@@ -10005,7 +11105,7 @@
       <c r="N23" s="28"/>
       <c r="O23" s="17"/>
     </row>
-    <row r="24" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="24" s="43" spans="1:15">
       <c r="A24" s="19" t="s">
         <v>710</v>
       </c>
@@ -10032,7 +11132,7 @@
       <c r="N24" s="28"/>
       <c r="O24" s="17"/>
     </row>
-    <row r="25" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="25" s="43" spans="1:15">
       <c r="A25" s="19"/>
       <c r="B25" s="15"/>
       <c r="C25" s="20" t="s">
@@ -10055,7 +11155,7 @@
       <c r="N25" s="28"/>
       <c r="O25" s="17"/>
     </row>
-    <row r="26" s="43" customFormat="1" ht="17.1" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="17.1" r="26" s="43" spans="1:15">
       <c r="A26" s="19"/>
       <c r="B26" s="15"/>
       <c r="C26" s="20" t="s">
@@ -10078,7 +11178,7 @@
       <c r="N26" s="28"/>
       <c r="O26" s="17"/>
     </row>
-    <row r="27" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="27" s="43" spans="1:15">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="20" t="s">
@@ -10101,7 +11201,7 @@
       <c r="N27" s="28"/>
       <c r="O27" s="17"/>
     </row>
-    <row r="28" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="28" s="43" spans="1:15">
       <c r="A28" s="19" t="s">
         <v>715</v>
       </c>
@@ -10126,7 +11226,7 @@
       <c r="N28" s="28"/>
       <c r="O28" s="17"/>
     </row>
-    <row r="29" s="43" customFormat="1" ht="96" spans="1:15">
+    <row customFormat="1" ht="96" r="29" s="43" spans="1:15">
       <c r="A29" s="19"/>
       <c r="B29" s="15" t="s">
         <v>717</v>
@@ -10155,7 +11255,7 @@
       <c r="N29" s="28"/>
       <c r="O29" s="17"/>
     </row>
-    <row r="30" s="43" customFormat="1" ht="24" spans="1:15">
+    <row customFormat="1" ht="24" r="30" s="43" spans="1:15">
       <c r="A30" s="19"/>
       <c r="B30" s="15"/>
       <c r="C30" s="20" t="s">
@@ -10182,7 +11282,7 @@
       <c r="N30" s="28"/>
       <c r="O30" s="17"/>
     </row>
-    <row r="31" s="43" customFormat="1" spans="1:15">
+    <row customFormat="1" r="31" s="43" spans="1:15">
       <c r="A31" s="19"/>
       <c r="B31" s="15"/>
       <c r="C31" s="20" t="s">
@@ -10207,7 +11307,7 @@
       <c r="N31" s="28"/>
       <c r="O31" s="17"/>
     </row>
-    <row r="32" s="43" customFormat="1" spans="1:15">
+    <row customFormat="1" r="32" s="43" spans="1:15">
       <c r="A32" s="19"/>
       <c r="B32" s="15"/>
       <c r="C32" s="20" t="s">
@@ -10234,7 +11334,7 @@
       <c r="N32" s="28"/>
       <c r="O32" s="17"/>
     </row>
-    <row r="33" s="43" customFormat="1" spans="1:15">
+    <row customFormat="1" r="33" s="43" spans="1:15">
       <c r="A33" s="19"/>
       <c r="B33" s="15"/>
       <c r="C33" s="20" t="s">
@@ -10257,7 +11357,7 @@
       <c r="N33" s="28"/>
       <c r="O33" s="17"/>
     </row>
-    <row r="34" s="43" customFormat="1" ht="15" spans="1:15">
+    <row customFormat="1" ht="15" r="34" s="43" spans="1:15">
       <c r="A34" s="19" t="s">
         <v>725</v>
       </c>
@@ -10286,7 +11386,7 @@
       <c r="N34" s="28"/>
       <c r="O34" s="17"/>
     </row>
-    <row r="35" s="43" customFormat="1" spans="1:15">
+    <row customFormat="1" r="35" s="43" spans="1:15">
       <c r="A35" s="19"/>
       <c r="B35" s="15"/>
       <c r="C35" s="20" t="s">
@@ -10313,7 +11413,7 @@
       <c r="N35" s="28"/>
       <c r="O35" s="17"/>
     </row>
-    <row r="36" s="43" customFormat="1" spans="1:15">
+    <row customFormat="1" r="36" s="43" spans="1:15">
       <c r="A36" s="19"/>
       <c r="B36" s="15"/>
       <c r="C36" s="20" t="s">
@@ -10340,7 +11440,7 @@
       <c r="N36" s="28"/>
       <c r="O36" s="17"/>
     </row>
-    <row r="37" s="43" customFormat="1" spans="1:15">
+    <row customFormat="1" r="37" s="43" spans="1:15">
       <c r="A37" s="19"/>
       <c r="B37" s="15"/>
       <c r="C37" s="20" t="s">
@@ -10367,7 +11467,7 @@
       <c r="N37" s="28"/>
       <c r="O37" s="17"/>
     </row>
-    <row r="38" s="43" customFormat="1" spans="1:15">
+    <row customFormat="1" r="38" s="43" spans="1:15">
       <c r="A38" s="19"/>
       <c r="B38" s="24"/>
       <c r="C38" s="20" t="s">
@@ -10394,7 +11494,7 @@
       <c r="N38" s="28"/>
       <c r="O38" s="17"/>
     </row>
-    <row r="39" s="43" customFormat="1" spans="1:15">
+    <row customFormat="1" r="39" s="43" spans="1:15">
       <c r="A39" s="19"/>
       <c r="B39" s="15"/>
       <c r="C39" s="20" t="s">
@@ -10417,7 +11517,7 @@
       <c r="N39" s="28"/>
       <c r="O39" s="17"/>
     </row>
-    <row r="40" s="43" customFormat="1" spans="1:15">
+    <row customFormat="1" r="40" s="43" spans="1:15">
       <c r="A40" s="19"/>
       <c r="B40" s="15"/>
       <c r="C40" s="20" t="s">
@@ -10440,7 +11540,7 @@
       <c r="N40" s="28"/>
       <c r="O40" s="17"/>
     </row>
-    <row r="41" s="43" customFormat="1" ht="24" spans="1:15">
+    <row customFormat="1" ht="24" r="41" s="43" spans="1:15">
       <c r="A41" s="19"/>
       <c r="B41" s="15" t="s">
         <v>736</v>
@@ -10467,7 +11567,7 @@
       <c r="N41" s="28"/>
       <c r="O41" s="17"/>
     </row>
-    <row r="42" s="43" customFormat="1" spans="1:15">
+    <row customFormat="1" r="42" s="43" spans="1:15">
       <c r="A42" s="19"/>
       <c r="B42" s="15"/>
       <c r="C42" s="20" t="s">
@@ -10490,7 +11590,7 @@
       <c r="N42" s="28"/>
       <c r="O42" s="17"/>
     </row>
-    <row r="43" s="43" customFormat="1" ht="15" spans="1:15">
+    <row customFormat="1" ht="15" r="43" s="43" spans="1:15">
       <c r="A43" s="19" t="s">
         <v>740</v>
       </c>
@@ -10519,7 +11619,7 @@
       <c r="N43" s="28"/>
       <c r="O43" s="17"/>
     </row>
-    <row r="44" s="43" customFormat="1" spans="1:15">
+    <row customFormat="1" r="44" s="43" spans="1:15">
       <c r="A44" s="19"/>
       <c r="B44" s="15"/>
       <c r="C44" s="20" t="s">
@@ -10542,7 +11642,7 @@
       <c r="N44" s="28"/>
       <c r="O44" s="17"/>
     </row>
-    <row r="45" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="45" s="43" spans="1:15">
       <c r="A45" s="19"/>
       <c r="B45" s="15"/>
       <c r="C45" s="20" t="s">
@@ -10565,7 +11665,7 @@
       <c r="N45" s="28"/>
       <c r="O45" s="17"/>
     </row>
-    <row r="46" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="46" s="43" spans="1:15">
       <c r="A46" s="19"/>
       <c r="B46" s="15"/>
       <c r="C46" s="20"/>
@@ -10582,7 +11682,7 @@
       <c r="N46" s="28"/>
       <c r="O46" s="17"/>
     </row>
-    <row r="47" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="47" s="43" spans="1:15">
       <c r="A47" s="19"/>
       <c r="B47" s="15"/>
       <c r="C47" s="20"/>
@@ -10599,7 +11699,7 @@
       <c r="N47" s="28"/>
       <c r="O47" s="17"/>
     </row>
-    <row r="48" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="48" s="43" spans="1:15">
       <c r="A48" s="19"/>
       <c r="B48" s="15"/>
       <c r="C48" s="20"/>
@@ -10616,7 +11716,7 @@
       <c r="N48" s="28"/>
       <c r="O48" s="17"/>
     </row>
-    <row r="49" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="49" s="43" spans="1:15">
       <c r="A49" s="19"/>
       <c r="B49" s="15"/>
       <c r="C49" s="20" t="s">
@@ -10643,7 +11743,7 @@
       <c r="N49" s="28"/>
       <c r="O49" s="17"/>
     </row>
-    <row r="50" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="50" s="43" spans="1:15">
       <c r="A50" s="19"/>
       <c r="B50" s="15"/>
       <c r="C50" s="20" t="s">
@@ -10670,7 +11770,7 @@
       <c r="N50" s="28"/>
       <c r="O50" s="17"/>
     </row>
-    <row r="51" s="43" customFormat="1" ht="18.95" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="18.95" r="51" s="43" spans="1:15">
       <c r="A51" s="19"/>
       <c r="B51" s="15"/>
       <c r="C51" s="20" t="s">
@@ -10695,7 +11795,7 @@
       <c r="N51" s="28"/>
       <c r="O51" s="17"/>
     </row>
-    <row r="52" s="43" customFormat="1" spans="1:15">
+    <row customFormat="1" r="52" s="43" spans="1:15">
       <c r="A52" s="56"/>
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
@@ -10712,7 +11812,7 @@
       <c r="N52" s="7"/>
       <c r="O52" s="6"/>
     </row>
-    <row r="53" s="43" customFormat="1" ht="12" spans="1:15">
+    <row customFormat="1" ht="12" r="53" s="43" spans="1:15">
       <c r="A53" s="56"/>
       <c r="B53" s="2"/>
       <c r="C53" s="3"/>
@@ -10730,7 +11830,7 @@
       <c r="O53" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -10738,59 +11838,59 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D13 D15:D51">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D13 D15:D51" type="list">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C13 C15:C51">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C13 C15:C51" type="list">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.5" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="18.375" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.375" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="6" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="9" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="19.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="11.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="9.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="29.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="49.0" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="4" width="18.375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="18.375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="6" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15">
       <c r="A1" s="10" t="s">
         <v>605</v>
       </c>
@@ -10821,7 +11921,7 @@
       <c r="N1" s="36"/>
       <c r="O1" s="37"/>
     </row>
-    <row r="2" ht="99" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="99" r="2" spans="1:15">
       <c r="A2" s="12"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -10840,7 +11940,7 @@
       <c r="N2" s="38"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" ht="9.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="9.95" r="3" spans="1:15">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
@@ -10857,7 +11957,7 @@
       <c r="N3" s="28"/>
       <c r="O3" s="17"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="20.1" r="4" s="1" spans="1:15">
       <c r="A4" s="18" t="s">
         <v>614</v>
       </c>
@@ -10902,7 +12002,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="5" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15">
       <c r="A5" s="19" t="s">
         <v>752</v>
       </c>
@@ -10929,7 +12029,7 @@
       <c r="N5" s="28"/>
       <c r="O5" s="17"/>
     </row>
-    <row r="6" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="20" t="s">
@@ -10954,7 +12054,7 @@
       <c r="N6" s="28"/>
       <c r="O6" s="17"/>
     </row>
-    <row r="7" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="20" t="s">
@@ -10979,7 +12079,7 @@
       <c r="N7" s="28"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="20" t="s">
@@ -11004,7 +12104,7 @@
       <c r="N8" s="28"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="20" t="s">
@@ -11029,7 +12129,7 @@
       <c r="N9" s="28"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15">
       <c r="A10" s="15"/>
       <c r="B10" s="40"/>
       <c r="C10" s="20"/>
@@ -11046,7 +12146,7 @@
       <c r="N10" s="28"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="20"/>
@@ -11063,7 +12163,7 @@
       <c r="N11" s="28"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="20"/>
@@ -11080,7 +12180,7 @@
       <c r="N12" s="28"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="20"/>
@@ -11097,7 +12197,7 @@
       <c r="N13" s="28"/>
       <c r="O13" s="17"/>
     </row>
-    <row r="14" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="20"/>
@@ -11114,7 +12214,7 @@
       <c r="N14" s="28"/>
       <c r="O14" s="17"/>
     </row>
-    <row r="15" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="20"/>
@@ -11131,7 +12231,7 @@
       <c r="N15" s="28"/>
       <c r="O15" s="17"/>
     </row>
-    <row r="16" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="20"/>
@@ -11148,7 +12248,7 @@
       <c r="N16" s="28"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="20"/>
@@ -11165,7 +12265,7 @@
       <c r="N17" s="28"/>
       <c r="O17" s="17"/>
     </row>
-    <row r="18" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="20"/>
@@ -11182,7 +12282,7 @@
       <c r="N18" s="28"/>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="20"/>
@@ -11216,7 +12316,7 @@
       <c r="N20" s="28"/>
       <c r="O20" s="17"/>
     </row>
-    <row r="21" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="20"/>
@@ -11250,7 +12350,7 @@
       <c r="N22" s="28"/>
       <c r="O22" s="17"/>
     </row>
-    <row r="23" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="20"/>
@@ -11284,7 +12384,7 @@
       <c r="N24" s="28"/>
       <c r="O24" s="17"/>
     </row>
-    <row r="25" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="20"/>
@@ -11301,7 +12401,7 @@
       <c r="N25" s="28"/>
       <c r="O25" s="17"/>
     </row>
-    <row r="26" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="20"/>
@@ -11318,7 +12418,7 @@
       <c r="N26" s="28"/>
       <c r="O26" s="17"/>
     </row>
-    <row r="27" ht="24" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24" r="27" spans="1:15">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="20"/>
@@ -11335,7 +12435,7 @@
       <c r="N27" s="28"/>
       <c r="O27" s="17"/>
     </row>
-    <row r="28" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="20"/>
@@ -11352,7 +12452,7 @@
       <c r="N28" s="28"/>
       <c r="O28" s="17"/>
     </row>
-    <row r="29" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="20"/>
@@ -11369,7 +12469,7 @@
       <c r="N29" s="28"/>
       <c r="O29" s="17"/>
     </row>
-    <row r="30" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="20"/>
@@ -11386,7 +12486,7 @@
       <c r="N30" s="28"/>
       <c r="O30" s="17"/>
     </row>
-    <row r="31" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="20"/>
@@ -11403,7 +12503,7 @@
       <c r="N31" s="28"/>
       <c r="O31" s="17"/>
     </row>
-    <row r="32" ht="17.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="17.1" r="32" spans="1:15">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="20"/>
@@ -11420,7 +12520,7 @@
       <c r="N32" s="28"/>
       <c r="O32" s="17"/>
     </row>
-    <row r="33" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="20"/>
@@ -11437,7 +12537,7 @@
       <c r="N33" s="28"/>
       <c r="O33" s="17"/>
     </row>
-    <row r="34" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="I34" s="21"/>
@@ -11448,7 +12548,7 @@
       <c r="N34" s="28"/>
       <c r="O34" s="17"/>
     </row>
-    <row r="35" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="20"/>
@@ -11465,7 +12565,7 @@
       <c r="N35" s="28"/>
       <c r="O35" s="17"/>
     </row>
-    <row r="36" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="20"/>
@@ -11482,7 +12582,7 @@
       <c r="N36" s="28"/>
       <c r="O36" s="17"/>
     </row>
-    <row r="37" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="20"/>
@@ -11499,7 +12599,7 @@
       <c r="N37" s="28"/>
       <c r="O37" s="17"/>
     </row>
-    <row r="38" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="20"/>
@@ -11516,7 +12616,7 @@
       <c r="N38" s="28"/>
       <c r="O38" s="17"/>
     </row>
-    <row r="39" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="20"/>
@@ -11533,7 +12633,7 @@
       <c r="N39" s="28"/>
       <c r="O39" s="17"/>
     </row>
-    <row r="40" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="20"/>
@@ -11550,7 +12650,7 @@
       <c r="N40" s="28"/>
       <c r="O40" s="17"/>
     </row>
-    <row r="41" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="20"/>
@@ -11567,7 +12667,7 @@
       <c r="N41" s="28"/>
       <c r="O41" s="17"/>
     </row>
-    <row r="42" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="20"/>
@@ -11584,7 +12684,7 @@
       <c r="N42" s="28"/>
       <c r="O42" s="17"/>
     </row>
-    <row r="43" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="20"/>
@@ -11601,7 +12701,7 @@
       <c r="N43" s="28"/>
       <c r="O43" s="17"/>
     </row>
-    <row r="44" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15">
       <c r="A44" s="15"/>
       <c r="B44" s="24"/>
       <c r="C44" s="20"/>
@@ -11618,7 +12718,7 @@
       <c r="N44" s="28"/>
       <c r="O44" s="17"/>
     </row>
-    <row r="45" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="20"/>
@@ -11635,7 +12735,7 @@
       <c r="N45" s="28"/>
       <c r="O45" s="17"/>
     </row>
-    <row r="46" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="20"/>
@@ -11652,7 +12752,7 @@
       <c r="N46" s="28"/>
       <c r="O46" s="17"/>
     </row>
-    <row r="47" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="20"/>
@@ -11669,7 +12769,7 @@
       <c r="N47" s="28"/>
       <c r="O47" s="17"/>
     </row>
-    <row r="48" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="20"/>
@@ -11686,7 +12786,7 @@
       <c r="N48" s="28"/>
       <c r="O48" s="17"/>
     </row>
-    <row r="49" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="20"/>
@@ -11703,7 +12803,7 @@
       <c r="N49" s="28"/>
       <c r="O49" s="17"/>
     </row>
-    <row r="50" ht="18.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="20"/>
@@ -11721,7 +12821,7 @@
       <c r="O50" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -11729,60 +12829,60 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D19 D21:D33 D35:D50">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D19 D21:D33 D35:D50" type="list">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C19 C21:C33 C35:C50">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C19 C21:C33 C35:C50" type="list">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D22" pane="bottomLeft" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="35.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.625" style="4" customWidth="1"/>
-    <col min="7" max="9" width="11.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="63.875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="1.625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1"/>
-    <col min="14" max="14" width="15.875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="49.875" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="10.875" style="9"/>
+    <col min="1" max="1" customWidth="true" style="2" width="21.125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="30.875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="9.5" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="4" width="29.375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="4" width="35.125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="4" width="20.625" collapsed="false"/>
+    <col min="7" max="9" customWidth="true" style="4" width="11.375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="5" width="63.875" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="6" width="1.625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="7" width="15.875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="6" width="49.875" collapsed="false"/>
+    <col min="16" max="16384" style="9" width="10.875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15">
       <c r="A1" s="10" t="s">
         <v>605</v>
       </c>
@@ -11813,7 +12913,7 @@
       <c r="N1" s="36"/>
       <c r="O1" s="37"/>
     </row>
-    <row r="2" ht="140.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15">
       <c r="A2" s="12" t="s">
         <v>763</v>
       </c>
@@ -11836,7 +12936,7 @@
       <c r="N2" s="38"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" ht="9.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="9.95" r="3" spans="1:15">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
@@ -11853,7 +12953,7 @@
       <c r="N3" s="28"/>
       <c r="O3" s="17"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="20.1" r="4" s="1" spans="1:15">
       <c r="A4" s="18" t="s">
         <v>614</v>
       </c>
@@ -11898,7 +12998,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="5" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="5" spans="1:15">
       <c r="A5" s="19" t="s">
         <v>765</v>
       </c>
@@ -11927,7 +13027,7 @@
       <c r="N5" s="28"/>
       <c r="O5" s="17"/>
     </row>
-    <row r="6" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="6" spans="1:15">
       <c r="A6" s="19"/>
       <c r="B6" s="15" t="s">
         <v>768</v>
@@ -11954,7 +13054,7 @@
       <c r="N6" s="28"/>
       <c r="O6" s="17"/>
     </row>
-    <row r="7" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="7" spans="1:15">
       <c r="A7" s="19"/>
       <c r="B7" s="15" t="s">
         <v>766</v>
@@ -11981,7 +13081,7 @@
       <c r="N7" s="28"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="8" spans="1:15">
       <c r="A8" s="19"/>
       <c r="B8" s="15"/>
       <c r="C8" s="20" t="s">
@@ -12004,7 +13104,7 @@
       <c r="N8" s="28"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="9" spans="1:15">
       <c r="A9" s="19" t="s">
         <v>772</v>
       </c>
@@ -12033,7 +13133,7 @@
       <c r="N9" s="28"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="10" spans="1:15">
       <c r="A10" s="19"/>
       <c r="B10" s="23"/>
       <c r="C10" s="20" t="s">
@@ -12058,7 +13158,7 @@
       <c r="N10" s="28"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="11" spans="1:15">
       <c r="A11" s="19"/>
       <c r="B11" s="23"/>
       <c r="C11" s="20" t="s">
@@ -12083,7 +13183,7 @@
       <c r="N11" s="28"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="12" spans="1:15">
       <c r="A12" s="19"/>
       <c r="B12" s="23" t="s">
         <v>779</v>
@@ -12112,7 +13212,7 @@
       <c r="N12" s="28"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="13" spans="1:15">
       <c r="A13" s="19"/>
       <c r="B13" s="23" t="s">
         <v>782</v>
@@ -12139,7 +13239,7 @@
       <c r="N13" s="28"/>
       <c r="O13" s="17"/>
     </row>
-    <row r="14" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="14" spans="1:15">
       <c r="A14" s="19"/>
       <c r="B14" s="22" t="s">
         <v>784</v>
@@ -12166,7 +13266,7 @@
       <c r="N14" s="28"/>
       <c r="O14" s="17"/>
     </row>
-    <row r="15" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="15" spans="1:15">
       <c r="A15" s="19"/>
       <c r="B15" s="23"/>
       <c r="C15" s="20" t="s">
@@ -12191,7 +13291,7 @@
       <c r="N15" s="28"/>
       <c r="O15" s="17"/>
     </row>
-    <row r="16" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="16" spans="1:15">
       <c r="A16" s="19"/>
       <c r="B16" s="23"/>
       <c r="C16" s="20" t="s">
@@ -12216,7 +13316,7 @@
       <c r="N16" s="28"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="17" spans="1:15">
       <c r="A17" s="19"/>
       <c r="B17" s="23" t="s">
         <v>779</v>
@@ -12245,7 +13345,7 @@
       <c r="N17" s="28"/>
       <c r="O17" s="17"/>
     </row>
-    <row r="18" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="18" spans="1:15">
       <c r="A18" s="19"/>
       <c r="B18" s="23" t="s">
         <v>782</v>
@@ -12272,7 +13372,7 @@
       <c r="N18" s="28"/>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="19" spans="1:15">
       <c r="A19" s="19" t="s">
         <v>790</v>
       </c>
@@ -12301,7 +13401,7 @@
       <c r="N19" s="28"/>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="20" spans="1:15">
       <c r="A20" s="19"/>
       <c r="B20" s="15" t="s">
         <v>792</v>
@@ -12328,7 +13428,7 @@
       <c r="N20" s="28"/>
       <c r="O20" s="17"/>
     </row>
-    <row r="21" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="21" spans="1:15">
       <c r="A21" s="19"/>
       <c r="B21" s="15" t="s">
         <v>795</v>
@@ -12355,7 +13455,7 @@
       <c r="N21" s="28"/>
       <c r="O21" s="17"/>
     </row>
-    <row r="22" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="22" spans="1:15">
       <c r="A22" s="19"/>
       <c r="B22" s="15"/>
       <c r="C22" s="20" t="s">
@@ -12378,7 +13478,7 @@
       <c r="N22" s="28"/>
       <c r="O22" s="17"/>
     </row>
-    <row r="23" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="23" spans="1:15">
       <c r="A23" s="19"/>
       <c r="B23" s="15"/>
       <c r="C23" s="20"/>
@@ -12395,7 +13495,7 @@
       <c r="N23" s="28"/>
       <c r="O23" s="17"/>
     </row>
-    <row r="24" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="24" spans="1:15">
       <c r="A24" s="19"/>
       <c r="B24" s="15"/>
       <c r="C24" s="20"/>
@@ -12412,7 +13512,7 @@
       <c r="N24" s="28"/>
       <c r="O24" s="17"/>
     </row>
-    <row r="25" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="25" spans="1:15">
       <c r="A25" s="19" t="s">
         <v>799</v>
       </c>
@@ -12441,7 +13541,7 @@
       <c r="N25" s="28"/>
       <c r="O25" s="17"/>
     </row>
-    <row r="26" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="26" spans="1:15">
       <c r="A26" s="19"/>
       <c r="B26" s="15"/>
       <c r="C26" s="20" t="s">
@@ -12464,7 +13564,7 @@
       <c r="N26" s="28"/>
       <c r="O26" s="17"/>
     </row>
-    <row r="27" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="27" spans="1:15">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="20"/>
@@ -12481,7 +13581,7 @@
       <c r="N27" s="28"/>
       <c r="O27" s="17"/>
     </row>
-    <row r="28" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="28" spans="1:15">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="20"/>
@@ -12498,7 +13598,7 @@
       <c r="N28" s="28"/>
       <c r="O28" s="17"/>
     </row>
-    <row r="29" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="29" spans="1:15">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="20"/>
@@ -12515,7 +13615,7 @@
       <c r="N29" s="28"/>
       <c r="O29" s="17"/>
     </row>
-    <row r="30" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="30" spans="1:15">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="20"/>
@@ -12532,7 +13632,7 @@
       <c r="N30" s="28"/>
       <c r="O30" s="17"/>
     </row>
-    <row r="31" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="31" spans="1:15">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="20"/>
@@ -12549,7 +13649,7 @@
       <c r="N31" s="28"/>
       <c r="O31" s="17"/>
     </row>
-    <row r="32" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="32" spans="1:15">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="20"/>
@@ -12566,7 +13666,7 @@
       <c r="N32" s="28"/>
       <c r="O32" s="17"/>
     </row>
-    <row r="33" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="33" spans="1:15">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="20"/>
@@ -12583,7 +13683,7 @@
       <c r="N33" s="28"/>
       <c r="O33" s="17"/>
     </row>
-    <row r="34" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="34" spans="1:15">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="20"/>
@@ -12600,7 +13700,7 @@
       <c r="N34" s="28"/>
       <c r="O34" s="17"/>
     </row>
-    <row r="35" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="35" spans="1:15">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="20"/>
@@ -12617,7 +13717,7 @@
       <c r="N35" s="28"/>
       <c r="O35" s="17"/>
     </row>
-    <row r="36" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="36" spans="1:15">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="20"/>
@@ -12634,7 +13734,7 @@
       <c r="N36" s="28"/>
       <c r="O36" s="17"/>
     </row>
-    <row r="37" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="37" spans="1:15">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="20"/>
@@ -12651,7 +13751,7 @@
       <c r="N37" s="28"/>
       <c r="O37" s="17"/>
     </row>
-    <row r="38" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="38" spans="1:15">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="20"/>
@@ -12668,7 +13768,7 @@
       <c r="N38" s="28"/>
       <c r="O38" s="17"/>
     </row>
-    <row r="39" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="39" spans="1:15">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="20"/>
@@ -12685,7 +13785,7 @@
       <c r="N39" s="28"/>
       <c r="O39" s="17"/>
     </row>
-    <row r="40" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="40" spans="1:15">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="20"/>
@@ -12702,7 +13802,7 @@
       <c r="N40" s="28"/>
       <c r="O40" s="17"/>
     </row>
-    <row r="41" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="41" spans="1:15">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="20"/>
@@ -12719,7 +13819,7 @@
       <c r="N41" s="28"/>
       <c r="O41" s="17"/>
     </row>
-    <row r="42" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="42" spans="1:15">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="20"/>
@@ -12736,7 +13836,7 @@
       <c r="N42" s="28"/>
       <c r="O42" s="17"/>
     </row>
-    <row r="43" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="43" spans="1:15">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="20"/>
@@ -12753,7 +13853,7 @@
       <c r="N43" s="28"/>
       <c r="O43" s="17"/>
     </row>
-    <row r="44" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="44" spans="1:15">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="20"/>
@@ -12770,7 +13870,7 @@
       <c r="N44" s="28"/>
       <c r="O44" s="17"/>
     </row>
-    <row r="45" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="45" spans="1:15">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="20"/>
@@ -12787,7 +13887,7 @@
       <c r="N45" s="28"/>
       <c r="O45" s="17"/>
     </row>
-    <row r="46" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="46" spans="1:15">
       <c r="A46" s="15"/>
       <c r="B46" s="24"/>
       <c r="C46" s="20"/>
@@ -12804,7 +13904,7 @@
       <c r="N46" s="28"/>
       <c r="O46" s="17"/>
     </row>
-    <row r="47" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="47" spans="1:15">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="20"/>
@@ -12821,7 +13921,7 @@
       <c r="N47" s="28"/>
       <c r="O47" s="17"/>
     </row>
-    <row r="48" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="48" spans="1:15">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="20"/>
@@ -12838,7 +13938,7 @@
       <c r="N48" s="28"/>
       <c r="O48" s="17"/>
     </row>
-    <row r="49" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="49" spans="1:15">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="20"/>
@@ -12855,7 +13955,7 @@
       <c r="N49" s="28"/>
       <c r="O49" s="17"/>
     </row>
-    <row r="50" ht="24.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="24.95" r="50" spans="1:15">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="20"/>
@@ -12873,7 +13973,7 @@
       <c r="O50" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -12881,36 +13981,36 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x14">
       <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1025" name="Drop Down 1" r:id="rId3">
-              <controlPr print="0" defaultSize="0">
+            <control name="Drop Down 1" r:id="rId3" shapeId="1025">
+              <controlPr defaultSize="0" print="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
